--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="19400" windowHeight="11000" tabRatio="742"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="19395" windowHeight="10995" tabRatio="742" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
   <si>
     <t>Sources:</t>
   </si>
@@ -97,12 +97,6 @@
   </si>
   <si>
     <t>motorbikes</t>
-  </si>
-  <si>
-    <t>psgr</t>
-  </si>
-  <si>
-    <t>frgt</t>
   </si>
   <si>
     <t>For sources and calculations, see the variable BNVFE.</t>
@@ -168,9 +162,6 @@
     <t>Smoothed data</t>
   </si>
   <si>
-    <t>Nonroad vehicle efficiencies are held constant over time.</t>
-  </si>
-  <si>
     <t>These values are calculated as shown in the SYFAFE.xlsx spreadsheet</t>
   </si>
   <si>
@@ -194,6 +185,12 @@
   <si>
     <t xml:space="preserve">from 18 years prior. </t>
   </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
 </sst>
 </file>
 
@@ -207,7 +204,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,15 +449,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="32">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,12 +592,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -625,7 +609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -825,15 +809,6 @@
       <bottom style="double">
         <color indexed="62"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1093,7 +1068,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1104,26 +1079,24 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="29" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="12" fillId="28" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="153">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
@@ -1663,32 +1636,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="107.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1696,32 +1669,32 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="13" t="s">
-        <v>47</v>
+      <c r="A10" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="13" t="s">
-        <v>48</v>
+      <c r="A11" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
-        <v>49</v>
+      <c r="A12" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1741,9 +1714,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -2746,9 +2719,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -3635,13 +3608,13 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -4305,145 +4278,145 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="e">
-        <f>'Nonroad values'!AK2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="4" t="e">
-        <f>'Nonroad values'!AL2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="4" t="e">
-        <f>'Nonroad values'!AM2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="4" t="e">
-        <f>'Nonroad values'!AN2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="4" t="e">
-        <f>'Nonroad values'!AO2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="4" t="e">
-        <f>'Nonroad values'!AP2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="4" t="e">
-        <f>'Nonroad values'!AQ2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="4" t="e">
-        <f>'Nonroad values'!AR2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="4" t="e">
-        <f>'Nonroad values'!AS2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K7" s="4" t="e">
-        <f>'Nonroad values'!AT2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="4" t="e">
-        <f>'Nonroad values'!AU2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="4" t="e">
-        <f>'Nonroad values'!AV2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N7" s="4" t="e">
-        <f>'Nonroad values'!AW2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O7" s="4" t="e">
-        <f>'Nonroad values'!AX2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P7" s="4" t="e">
-        <f>'Nonroad values'!AY2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q7" s="4" t="e">
-        <f>'Nonroad values'!AZ2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R7" s="4" t="e">
-        <f>'Nonroad values'!BA2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S7" s="4" t="e">
-        <f>'Nonroad values'!BB2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T7" s="4" t="e">
-        <f>'Nonroad values'!BC2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U7" s="4" t="e">
-        <f>'Nonroad values'!BD2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V7" s="4" t="e">
-        <f>'Nonroad values'!BE2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W7" s="4" t="e">
-        <f>'Nonroad values'!BF2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X7" s="4" t="e">
-        <f>'Nonroad values'!BG2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y7" s="4" t="e">
-        <f>'Nonroad values'!BH2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z7" s="4" t="e">
-        <f>'Nonroad values'!BI2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA7" s="4" t="e">
-        <f>'Nonroad values'!BJ2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB7" s="4" t="e">
-        <f>'Nonroad values'!BK2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC7" s="4" t="e">
-        <f>'Nonroad values'!BL2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD7" s="4" t="e">
-        <f>'Nonroad values'!BM2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AE7" s="4" t="e">
-        <f>'Nonroad values'!BN2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF7" s="4" t="e">
-        <f>'Nonroad values'!BO2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG7" s="4" t="e">
-        <f>'Nonroad values'!BP2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH7" s="4" t="e">
-        <f>'Nonroad values'!BQ2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI7" s="4" t="e">
-        <f>'Nonroad values'!BR2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ7" s="4" t="e">
-        <f>'Nonroad values'!BS2</f>
-        <v>#REF!</v>
+      <c r="B7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="C7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="E7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="F7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="G7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="H7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="I7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="J7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="K7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="L7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="M7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="N7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="O7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="P7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="R7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="S7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="T7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="U7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="V7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="W7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="X7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="Z7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="AH7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>'Nonroad values'!$B$4</f>
+        <v>4.5399999999999998E-4</v>
       </c>
     </row>
   </sheetData>
@@ -4458,13 +4431,13 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -5129,109 +5102,144 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="C7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="D7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="E7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="F7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="G7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="H7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="I7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="J7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="K7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="L7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="M7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="N7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="O7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="P7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="Q7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="R7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="S7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="T7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="U7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="V7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="W7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="X7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="Y7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="Z7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="AA7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="AB7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="AC7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="AD7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="AE7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="AF7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="AG7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="AH7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="AI7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
       <c r="AJ7" s="4">
-        <v>1.055E-4</v>
+        <f>'Nonroad values'!$C$4</f>
+        <v>6.8100000000000002E-5</v>
       </c>
     </row>
   </sheetData>
@@ -5246,11 +5254,13 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AJ7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -5914,145 +5924,145 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="e">
-        <f>'Nonroad values'!C4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="4" t="e">
-        <f>'Nonroad values'!D4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="4" t="e">
-        <f>'Nonroad values'!E4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="4" t="e">
-        <f>'Nonroad values'!F4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="4" t="e">
-        <f>'Nonroad values'!G4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="4" t="e">
-        <f>'Nonroad values'!H4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" s="4" t="e">
-        <f>'Nonroad values'!I4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" s="4" t="e">
-        <f>'Nonroad values'!J4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="4" t="e">
-        <f>'Nonroad values'!K4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="4" t="e">
-        <f>'Nonroad values'!L4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" s="4" t="e">
-        <f>'Nonroad values'!M4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" s="4" t="e">
-        <f>'Nonroad values'!N4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" s="4" t="e">
-        <f>'Nonroad values'!O4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" s="4" t="e">
-        <f>'Nonroad values'!P4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P7" s="4" t="e">
-        <f>'Nonroad values'!Q4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q7" s="4" t="e">
-        <f>'Nonroad values'!R4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R7" s="4" t="e">
-        <f>'Nonroad values'!S4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S7" s="4" t="e">
-        <f>'Nonroad values'!T4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T7" s="4" t="e">
-        <f>'Nonroad values'!U4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U7" s="4" t="e">
-        <f>'Nonroad values'!V4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V7" s="4" t="e">
-        <f>'Nonroad values'!W4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W7" s="4" t="e">
-        <f>'Nonroad values'!X4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X7" s="4" t="e">
-        <f>'Nonroad values'!Y4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y7" s="4" t="e">
-        <f>'Nonroad values'!Z4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z7" s="4" t="e">
-        <f>'Nonroad values'!AA4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA7" s="4" t="e">
-        <f>'Nonroad values'!AB4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB7" s="4" t="e">
-        <f>'Nonroad values'!AC4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC7" s="4" t="e">
-        <f>'Nonroad values'!AD4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD7" s="4" t="e">
-        <f>'Nonroad values'!AE4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE7" s="4" t="e">
-        <f>'Nonroad values'!AF4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF7" s="4" t="e">
-        <f>'Nonroad values'!AG4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG7" s="4" t="e">
-        <f>'Nonroad values'!AH4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH7" s="4" t="e">
-        <f>'Nonroad values'!AI4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI7" s="4" t="e">
-        <f>'Nonroad values'!AJ4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ7" s="4" t="e">
-        <f>'Nonroad values'!AK4</f>
-        <v>#REF!</v>
+      <c r="B7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="C7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="E7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="F7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="G7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="H7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="I7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="J7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="K7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="L7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="M7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="N7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="O7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="P7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="R7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="S7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="T7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="U7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="V7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="W7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="X7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="Z7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="AH7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>'Nonroad values'!$B$5</f>
+        <v>8.8199999999999997E-4</v>
       </c>
     </row>
   </sheetData>
@@ -6067,13 +6077,13 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AJ7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="A10:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -6738,108 +6748,143 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="C7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="D7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="E7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="F7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="G7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="H7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="I7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="J7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="K7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="L7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="M7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="N7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="O7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="P7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="Q7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="R7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="S7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="T7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="U7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="V7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="W7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="X7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="Y7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="Z7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="AA7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="AB7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="AC7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="AD7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="AE7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="AF7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="AG7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="AH7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="AI7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
       <c r="AJ7" s="4">
+        <f>'Nonroad values'!$C$5</f>
         <v>3.429339E-3</v>
       </c>
     </row>
@@ -6855,11 +6900,13 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="A16:C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -7523,145 +7570,145 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="e">
-        <f>'Nonroad values'!D6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="4" t="e">
-        <f>'Nonroad values'!E6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D7" s="4" t="e">
-        <f>'Nonroad values'!F6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="4" t="e">
-        <f>'Nonroad values'!G6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="4" t="e">
-        <f>'Nonroad values'!H6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="4" t="e">
-        <f>'Nonroad values'!I6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" s="4" t="e">
-        <f>'Nonroad values'!J6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" s="4" t="e">
-        <f>'Nonroad values'!K6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="4" t="e">
-        <f>'Nonroad values'!L6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="4" t="e">
-        <f>'Nonroad values'!M6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" s="4" t="e">
-        <f>'Nonroad values'!N6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" s="4" t="e">
-        <f>'Nonroad values'!O6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" s="4" t="e">
-        <f>'Nonroad values'!P6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" s="4" t="e">
-        <f>'Nonroad values'!Q6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P7" s="4" t="e">
-        <f>'Nonroad values'!R6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q7" s="4" t="e">
-        <f>'Nonroad values'!S6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R7" s="4" t="e">
-        <f>'Nonroad values'!T6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S7" s="4" t="e">
-        <f>'Nonroad values'!U6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T7" s="4" t="e">
-        <f>'Nonroad values'!V6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U7" s="4" t="e">
-        <f>'Nonroad values'!W6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V7" s="4" t="e">
-        <f>'Nonroad values'!X6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W7" s="4" t="e">
-        <f>'Nonroad values'!Y6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X7" s="4" t="e">
-        <f>'Nonroad values'!Z6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y7" s="4" t="e">
-        <f>'Nonroad values'!AA6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z7" s="4" t="e">
-        <f>'Nonroad values'!AB6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA7" s="4" t="e">
-        <f>'Nonroad values'!AC6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB7" s="4" t="e">
-        <f>'Nonroad values'!AD6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC7" s="4" t="e">
-        <f>'Nonroad values'!AE6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD7" s="4" t="e">
-        <f>'Nonroad values'!AF6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE7" s="4" t="e">
-        <f>'Nonroad values'!AG6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF7" s="4" t="e">
-        <f>'Nonroad values'!AH6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG7" s="4" t="e">
-        <f>'Nonroad values'!AI6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH7" s="4" t="e">
-        <f>'Nonroad values'!AJ6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI7" s="4" t="e">
-        <f>'Nonroad values'!AK6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ7" s="4" t="e">
-        <f>'Nonroad values'!AL6</f>
-        <v>#REF!</v>
+      <c r="B7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="C7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="D7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="E7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="F7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="G7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="H7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="I7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="J7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="K7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="L7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="M7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="N7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="O7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="P7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="R7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="S7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="T7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="U7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="V7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="W7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="X7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="Z7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="AH7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>'Nonroad values'!$B$6</f>
+        <v>9.7999999999999993E-6</v>
       </c>
     </row>
   </sheetData>
@@ -7674,15 +7721,15 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AJ7"/>
+      <selection activeCell="C14" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -8346,145 +8393,150 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AE7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="C7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="G7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="I7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="J7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="K7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="L7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="M7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="N7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="O7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="P7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="R7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="S7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="T7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="U7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="V7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="W7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="X7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="Z7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="AH7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>'Nonroad values'!$C$6</f>
+        <v>3.7399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="B9">
+        <v>9.7999999999999993E-6</v>
       </c>
     </row>
   </sheetData>
@@ -8503,9 +8555,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -9470,9 +9522,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -10255,11 +10307,11 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:53">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:53">
@@ -10422,7 +10474,7 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>3.1856391074337059E-4</v>
@@ -10583,7 +10635,7 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>1.0111358409448513E-3</v>
@@ -10744,7 +10796,7 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>1.5777856020187898E-3</v>
@@ -11170,11 +11222,11 @@
       <c r="AY52" s="4"/>
     </row>
     <row r="54" spans="4:51">
-      <c r="E54" s="14"/>
-      <c r="P54" s="17"/>
+      <c r="E54" s="9"/>
+      <c r="P54" s="12"/>
     </row>
     <row r="55" spans="4:51">
-      <c r="P55" s="18"/>
+      <c r="P55" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11189,22 +11241,22 @@
       <selection activeCell="S4" sqref="S4:BA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.453125" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="54" width="9" customWidth="1"/>
-    <col min="55" max="55" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:55">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>1999</v>
@@ -11365,7 +11417,7 @@
     </row>
     <row r="3" spans="1:55">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:55">
@@ -12336,204 +12388,204 @@
     </row>
     <row r="12" spans="1:55">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:55">
-      <c r="A14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
+      <c r="A14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:55">
-      <c r="A15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="20">
+      <c r="A15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="BC15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="BC15" s="9"/>
     </row>
     <row r="16" spans="1:55">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:68" s="13" customFormat="1">
-      <c r="A17" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
+    <row r="17" spans="1:68" s="8" customFormat="1">
+      <c r="A17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:68">
-      <c r="A18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="23">
+      <c r="A18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="18">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="BN18" s="15"/>
+      <c r="BN18" s="10"/>
     </row>
     <row r="20" spans="1:68">
-      <c r="A20" s="21" t="s">
-        <v>40</v>
+      <c r="A20" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:68">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="15">
         <v>7.3991103689065611E-5</v>
       </c>
       <c r="O21">
@@ -12692,54 +12744,54 @@
         <f t="shared" si="1"/>
         <v>8.5361296228440362E-5</v>
       </c>
-      <c r="BN21" s="17"/>
-      <c r="BO21" s="17"/>
-      <c r="BP21" s="17"/>
+      <c r="BN21" s="12"/>
+      <c r="BO21" s="12"/>
+      <c r="BP21" s="12"/>
     </row>
     <row r="22" spans="1:68">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="18">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="15">
         <v>8.1288391438216569E-5</v>
       </c>
       <c r="P22">
@@ -12909,15 +12961,15 @@
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="33" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:52">
@@ -13077,7 +13129,7 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>6.384960889737354E-4</v>
@@ -13235,7 +13287,7 @@
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>4.0341554605105752E-4</v>
@@ -13393,7 +13445,7 @@
     </row>
     <row r="6" spans="1:52">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>1.4743915340610135E-3</v>
@@ -13551,10 +13603,10 @@
     </row>
     <row r="16" spans="1:52">
       <c r="AH16" s="1"/>
-      <c r="AI16" s="16"/>
+      <c r="AI16" s="11"/>
     </row>
     <row r="17" spans="34:34">
-      <c r="AH17" s="14"/>
+      <c r="AH17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13569,15 +13621,15 @@
       <selection activeCell="B18" sqref="B18:AK23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="32" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -13737,7 +13789,7 @@
     </row>
     <row r="4" spans="1:65">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:D6" si="0">C4</f>
@@ -13899,7 +13951,7 @@
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -14061,7 +14113,7 @@
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -14243,22 +14295,22 @@
         <f>B5</f>
         <v>4.9231115542468196E-4</v>
       </c>
-      <c r="BL10" s="17"/>
-      <c r="BM10" s="17"/>
+      <c r="BL10" s="12"/>
+      <c r="BM10" s="12"/>
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="BL11" s="17"/>
-      <c r="BM11" s="17"/>
+      <c r="BL11" s="12"/>
+      <c r="BM11" s="12"/>
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="BL12" s="17"/>
-      <c r="BM12" s="17"/>
+      <c r="BL12" s="12"/>
+      <c r="BM12" s="12"/>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
@@ -15071,7 +15123,7 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
@@ -15245,7 +15297,7 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="14">
         <v>0.68595041322314043</v>
       </c>
     </row>
@@ -15253,13 +15305,13 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="14">
         <v>0.68881036513545346</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -15274,1884 +15326,65 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="A3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="24" customFormat="1">
-      <c r="C1" s="24">
-        <v>1982</v>
-      </c>
-      <c r="D1" s="24">
-        <v>1983</v>
-      </c>
-      <c r="E1" s="24">
-        <v>1984</v>
-      </c>
-      <c r="F1" s="24">
-        <v>1985</v>
-      </c>
-      <c r="G1" s="24">
-        <v>1986</v>
-      </c>
-      <c r="H1" s="24">
-        <v>1987</v>
-      </c>
-      <c r="I1" s="24">
-        <v>1988</v>
-      </c>
-      <c r="J1" s="24">
-        <v>1989</v>
-      </c>
-      <c r="K1" s="24">
-        <v>1990</v>
-      </c>
-      <c r="L1" s="24">
-        <v>1991</v>
-      </c>
-      <c r="M1" s="24">
-        <v>1992</v>
-      </c>
-      <c r="N1" s="24">
-        <v>1993</v>
-      </c>
-      <c r="O1" s="24">
-        <v>1994</v>
-      </c>
-      <c r="P1" s="24">
-        <v>1995</v>
-      </c>
-      <c r="Q1" s="24">
-        <v>1996</v>
-      </c>
-      <c r="R1" s="24">
-        <v>1997</v>
-      </c>
-      <c r="S1" s="24">
-        <v>1998</v>
-      </c>
-      <c r="T1" s="24">
-        <v>1999</v>
-      </c>
-      <c r="U1" s="24">
-        <v>2000</v>
-      </c>
-      <c r="V1" s="24">
-        <v>2001</v>
-      </c>
-      <c r="W1" s="24">
-        <v>2002</v>
-      </c>
-      <c r="X1" s="24">
-        <v>2003</v>
-      </c>
-      <c r="Y1" s="24">
-        <v>2004</v>
-      </c>
-      <c r="Z1" s="24">
-        <v>2005</v>
-      </c>
-      <c r="AA1" s="24">
-        <v>2006</v>
-      </c>
-      <c r="AB1" s="24">
-        <v>2007</v>
-      </c>
-      <c r="AC1" s="24">
-        <v>2008</v>
-      </c>
-      <c r="AD1" s="24">
-        <v>2009</v>
-      </c>
-      <c r="AE1" s="24">
-        <v>2010</v>
-      </c>
-      <c r="AF1" s="24">
-        <v>2011</v>
-      </c>
-      <c r="AG1" s="24">
-        <v>2012</v>
-      </c>
-      <c r="AH1" s="24">
-        <v>2013</v>
-      </c>
-      <c r="AI1" s="24">
-        <v>2014</v>
-      </c>
-      <c r="AJ1" s="25">
-        <v>2015</v>
-      </c>
-      <c r="AK1" s="24">
-        <v>2016</v>
-      </c>
-      <c r="AL1" s="24">
-        <v>2017</v>
-      </c>
-      <c r="AM1" s="24">
-        <v>2018</v>
-      </c>
-      <c r="AN1" s="24">
-        <v>2019</v>
-      </c>
-      <c r="AO1" s="24">
-        <v>2020</v>
-      </c>
-      <c r="AP1" s="24">
-        <v>2021</v>
-      </c>
-      <c r="AQ1" s="24">
-        <v>2022</v>
-      </c>
-      <c r="AR1" s="24">
-        <v>2023</v>
-      </c>
-      <c r="AS1" s="24">
-        <v>2024</v>
-      </c>
-      <c r="AT1" s="24">
-        <v>2025</v>
-      </c>
-      <c r="AU1" s="24">
-        <v>2026</v>
-      </c>
-      <c r="AV1" s="24">
-        <v>2027</v>
-      </c>
-      <c r="AW1" s="24">
-        <v>2028</v>
-      </c>
-      <c r="AX1" s="24">
-        <v>2029</v>
-      </c>
-      <c r="AY1" s="24">
-        <v>2030</v>
-      </c>
-      <c r="AZ1" s="24">
-        <v>2031</v>
-      </c>
-      <c r="BA1" s="24">
-        <v>2032</v>
-      </c>
-      <c r="BB1" s="24">
-        <v>2033</v>
-      </c>
-      <c r="BC1" s="24">
-        <v>2034</v>
-      </c>
-      <c r="BD1" s="24">
-        <v>2035</v>
-      </c>
-      <c r="BE1" s="24">
-        <v>2036</v>
-      </c>
-      <c r="BF1" s="24">
-        <v>2037</v>
-      </c>
-      <c r="BG1" s="24">
-        <v>2038</v>
-      </c>
-      <c r="BH1" s="24">
-        <v>2039</v>
-      </c>
-      <c r="BI1" s="24">
-        <v>2040</v>
-      </c>
-      <c r="BJ1" s="24">
-        <v>2041</v>
-      </c>
-      <c r="BK1" s="24">
-        <v>2042</v>
-      </c>
-      <c r="BL1" s="24">
-        <v>2043</v>
-      </c>
-      <c r="BM1" s="24">
-        <v>2044</v>
-      </c>
-      <c r="BN1" s="24">
-        <v>2045</v>
-      </c>
-      <c r="BO1" s="24">
-        <v>2046</v>
-      </c>
-      <c r="BP1" s="24">
-        <v>2047</v>
-      </c>
-      <c r="BQ1" s="24">
-        <v>2048</v>
-      </c>
-      <c r="BR1" s="24">
-        <v>2049</v>
-      </c>
-      <c r="BS1" s="24">
-        <v>2050</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:72">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="4" t="e">
-        <f t="shared" ref="C2:AJ7" si="0">TREND($AK2:$BS2,$AK$1:$BS$1,M$1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ2" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK2" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AN2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AO2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AP2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AR2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AS2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AU2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AV2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AW2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AX2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AY2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BC2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BD2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BE2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BF2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BG2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BH2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BI2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BJ2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BK2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BL2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BM2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BN2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BO2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BP2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BQ2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BR2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BS2" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BT2" s="4"/>
+      <c r="B4" s="20">
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="C4" s="20">
+        <v>6.8100000000000002E-5</v>
+      </c>
     </row>
-    <row r="3" spans="1:72">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="4" t="e">
-        <f t="shared" ref="M3:AI3" si="1">TREND($AK3:$BS3,$AK$1:$BS$1,M$1)-($AO3-$AK3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ3" s="10" t="e">
-        <f>TREND($AK3:$BS3,$AK$1:$BS$1,AJ$1)-($AO3-$AK3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK3" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AN3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AO3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AP3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AR3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AS3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AU3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AV3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AW3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AX3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AY3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BC3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BD3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BE3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BF3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BG3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BH3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BI3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BJ3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BK3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BL3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BM3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BN3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BO3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BP3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BQ3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BR3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BS3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BT3" s="4"/>
-    </row>
-    <row r="4" spans="1:72">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="e">
-        <f>$AK4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="4" t="e">
-        <f>$AK4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ4" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK4" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AN4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AO4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AP4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AR4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AS4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AU4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AV4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AW4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AX4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AY4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BC4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BD4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BE4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BF4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BG4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BH4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BI4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BJ4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BK4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BL4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BM4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BN4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BO4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BP4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BQ4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BR4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BS4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BT4" s="4"/>
-    </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="4" t="e">
-        <f>TREND($AK5:$BS5,$AK$1:$BS$1,F$1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ5" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK5" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AN5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AO5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AP5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AR5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AS5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AU5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AV5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AW5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AX5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AY5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BC5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BD5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BE5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BF5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BG5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BH5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BI5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BJ5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BK5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BL5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BM5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BN5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BO5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BP5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BQ5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BR5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BS5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BT5" s="4"/>
+      <c r="B5" s="20">
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="C5" s="20">
+        <v>3.429339E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="e">
-        <f>$AK6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ6" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AN6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AO6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AP6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AR6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AS6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AU6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AV6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AW6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AX6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AY6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BC6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BD6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BE6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BF6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BG6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BH6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BI6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BJ6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BK6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BL6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BM6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BN6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BO6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BP6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BQ6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BR6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BS6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BT6" s="4"/>
-    </row>
-    <row r="7" spans="1:72">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4" t="e">
-        <f>TREND($AK7:$BS7,$AK$1:$BS$1,D$1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="4" t="e">
-        <f>TREND($AK7:$BS7,$AK$1:$BS$1,F$1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ7" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK7" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AN7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AO7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AP7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AR7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AS7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AU7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AV7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AW7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AX7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AY7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BC7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BD7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BE7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BF7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BG7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BH7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BI7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BJ7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BK7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BL7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BM7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BN7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BO7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BP7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BQ7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BR7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BS7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BT7" s="4"/>
-    </row>
-    <row r="8" spans="1:72">
-      <c r="AJ8" s="4"/>
-    </row>
-    <row r="9" spans="1:72">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:72">
-      <c r="A11" t="s">
-        <v>42</v>
+      <c r="B6" s="20">
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="C6" s="20">
+        <v>3.7399999999999998E-3</v>
       </c>
     </row>
   </sheetData>
@@ -17170,9 +15403,9 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -18060,12 +16293,12 @@
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AJ1" sqref="A1:AJ1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\trans\BHNVFEAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="19395" windowHeight="10995" tabRatio="742" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="19395" windowHeight="10995" tabRatio="742" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,12 +43,12 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
   <si>
     <t>Sources:</t>
   </si>
@@ -180,9 +185,6 @@
     <t>For on road vehicles, historical data on vehicle efficiency by vintage is used to estimate average fuel economy of retiring vehicles.</t>
   </si>
   <si>
-    <t xml:space="preserve">For example, since a LDV passenger vehicle is assumed to have a life of 17 years, the retiring vehicles in a given year will reflect new vehicle economy </t>
-  </si>
-  <si>
     <t xml:space="preserve">from 18 years prior. </t>
   </si>
   <si>
@@ -191,11 +193,17 @@
   <si>
     <t>Freight</t>
   </si>
+  <si>
+    <t xml:space="preserve">For example, since a LDV passenger vehicle is assumed to have a life of 13 years, the retiring vehicles in a given year will reflect new vehicle economy </t>
+  </si>
+  <si>
+    <t>LDV Lifetime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -450,7 +458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,6 +613,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,7 +1082,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1097,6 +1111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="153">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
@@ -1390,7 +1405,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1425,7 +1440,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1634,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1689,12 +1704,20 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -6077,8 +6100,8 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A10:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10304,7 +10327,7 @@
   <dimension ref="A1:BA55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11238,7 +11261,7 @@
   <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S4" sqref="S4:BA9"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15348,10 +15371,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -15399,8 +15422,8 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15520,144 +15543,144 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>'LDV psg'!B5</f>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!B$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
         <v>1.5777856020187898E-3</v>
       </c>
       <c r="C2">
-        <f>'LDV psg'!C5</f>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!C$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
         <v>1.5777856020187898E-3</v>
       </c>
       <c r="D2">
-        <f>'LDV psg'!D5</f>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!D$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
         <v>1.5777856020187898E-3</v>
       </c>
       <c r="E2">
-        <f>'LDV psg'!E5</f>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!E$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
         <v>1.5777856020187898E-3</v>
       </c>
       <c r="F2">
-        <f>'LDV psg'!F5</f>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!F$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
         <v>1.5777856020187898E-3</v>
       </c>
       <c r="G2">
-        <f>'LDV psg'!G5</f>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!G$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
         <v>1.5777856020187898E-3</v>
       </c>
       <c r="H2">
-        <f>'LDV psg'!H5</f>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!H$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
         <v>1.5777856020187898E-3</v>
       </c>
       <c r="I2">
-        <f>'LDV psg'!I5</f>
-        <v>1.5777856020187898E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!I$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.5772719898126412E-3</v>
       </c>
       <c r="J2">
-        <f>'LDV psg'!J5</f>
-        <v>1.5777856020187898E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!J$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.5792887696596991E-3</v>
       </c>
       <c r="K2">
-        <f>'LDV psg'!K5</f>
-        <v>1.5777856020187898E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!K$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.5814082719479863E-3</v>
       </c>
       <c r="L2">
-        <f>'LDV psg'!L5</f>
-        <v>1.5777856020187898E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!L$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.5836470150648531E-3</v>
       </c>
       <c r="M2">
-        <f>'LDV psg'!M5</f>
-        <v>1.5772719898126412E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!M$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.5878695012540782E-3</v>
       </c>
       <c r="N2">
-        <f>'LDV psg'!N5</f>
-        <v>1.5792887696596991E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!N$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.5878695012540782E-3</v>
       </c>
       <c r="O2">
-        <f>'LDV psg'!O5</f>
-        <v>1.5814082719479863E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!O$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.6168768200735936E-3</v>
       </c>
       <c r="P2">
-        <f>'LDV psg'!P5</f>
-        <v>1.5836470150648531E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!P$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.6684754899028904E-3</v>
       </c>
       <c r="Q2">
-        <f>'LDV psg'!Q5</f>
-        <v>1.5878695012540782E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!Q$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.6925103007190251E-3</v>
       </c>
       <c r="R2">
-        <f>'LDV psg'!R5</f>
-        <v>1.5878695012540782E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!R$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.7311606219430804E-3</v>
       </c>
       <c r="S2">
-        <f>'LDV psg'!S5</f>
-        <v>1.6168768200735936E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!S$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.7599919774426065E-3</v>
       </c>
       <c r="T2">
-        <f>'LDV psg'!T5</f>
-        <v>1.6684754899028904E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!T$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.8032826149254849E-3</v>
       </c>
       <c r="U2">
-        <f>'LDV psg'!U5</f>
-        <v>1.6925103007190251E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!U$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.8390205149056255E-3</v>
       </c>
       <c r="V2">
-        <f>'LDV psg'!V5</f>
-        <v>1.7311606219430804E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!V$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.8682996654929781E-3</v>
       </c>
       <c r="W2">
-        <f>'LDV psg'!W5</f>
-        <v>1.7599919774426065E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!W$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.9009085220263408E-3</v>
       </c>
       <c r="X2">
-        <f>'LDV psg'!X5</f>
-        <v>1.8032826149254849E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!X$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.9488624245779288E-3</v>
       </c>
       <c r="Y2">
-        <f>'LDV psg'!Y5</f>
-        <v>1.8390205149056255E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!Y$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.9736634876968292E-3</v>
       </c>
       <c r="Z2">
-        <f>'LDV psg'!Z5</f>
-        <v>1.8682996654929781E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!Z$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.9987810231809769E-3</v>
       </c>
       <c r="AA2">
-        <f>'LDV psg'!AA5</f>
-        <v>1.9009085220263408E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!AA$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>2.0242190800843275E-3</v>
       </c>
       <c r="AB2">
-        <f>'LDV psg'!AB5</f>
-        <v>1.9488624245779288E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!AB$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>2.0499817597396139E-3</v>
       </c>
       <c r="AC2">
-        <f>'LDV psg'!AC5</f>
-        <v>1.9736634876968292E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!AC$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>2.0760731939270297E-3</v>
       </c>
       <c r="AD2">
-        <f>'LDV psg'!AD5</f>
-        <v>1.9987810231809769E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!AD$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>2.1024976455377448E-3</v>
       </c>
       <c r="AE2">
-        <f>'LDV psg'!AE5</f>
-        <v>2.0242190800843275E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!AE$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>2.1292593051879484E-3</v>
       </c>
       <c r="AF2">
-        <f>'LDV psg'!AF5</f>
-        <v>2.0499817597396139E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!AF$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>2.1563625406844388E-3</v>
       </c>
       <c r="AG2">
-        <f>'LDV psg'!AG5</f>
-        <v>2.0760731939270297E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!AG$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>2.1838117041347036E-3</v>
       </c>
       <c r="AH2">
-        <f>'LDV psg'!AH5</f>
-        <v>2.1024976455377448E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!AH$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>2.211611221543717E-3</v>
       </c>
       <c r="AI2">
-        <f>'LDV psg'!AI5</f>
-        <v>2.1292593051879484E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!AI$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>2.2397655758389996E-3</v>
       </c>
       <c r="AJ2">
-        <f>'LDV psg'!AJ5</f>
-        <v>2.1563625406844388E-3</v>
+        <f>INDEX('LDV psg'!$B$5:$BA$5,1,MATCH('BHNVFEAL-LDVs-psgr'!AJ$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>2.2682793084371935E-3</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -15775,144 +15798,144 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <f>'LDV psg'!B3</f>
-        <v>3.1856391074337059E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!B$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>3.0411182142128833E-4</v>
       </c>
       <c r="C4">
-        <f>'LDV psg'!C3</f>
-        <v>3.0801370458911361E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!C$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>3.0108692529822541E-4</v>
       </c>
       <c r="D4">
-        <f>'LDV psg'!D3</f>
-        <v>3.0848299413300292E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!D$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>3.014263012403966E-4</v>
       </c>
       <c r="E4">
-        <f>'LDV psg'!E3</f>
-        <v>3.0661705462732352E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!E$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>3.0041638185002568E-4</v>
       </c>
       <c r="F4">
-        <f>'LDV psg'!F3</f>
-        <v>3.0411182142128833E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!F$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>3.0231143746099141E-4</v>
       </c>
       <c r="G4">
-        <f>'LDV psg'!G3</f>
-        <v>3.0108692529822541E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!G$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>3.0444438810792954E-4</v>
       </c>
       <c r="H4">
-        <f>'LDV psg'!H3</f>
-        <v>3.014263012403966E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!H$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>3.0832508399349155E-4</v>
       </c>
       <c r="I4">
-        <f>'LDV psg'!I3</f>
-        <v>3.0041638185002568E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!I$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>2.9086605032331933E-4</v>
       </c>
       <c r="J4">
-        <f>'LDV psg'!J3</f>
-        <v>3.0231143746099141E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!J$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>2.8972262451586384E-4</v>
       </c>
       <c r="K4">
-        <f>'LDV psg'!K3</f>
-        <v>3.0444438810792954E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!K$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>3.2496998697161418E-4</v>
       </c>
       <c r="L4">
-        <f>'LDV psg'!L3</f>
-        <v>3.0832508399349155E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!L$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>3.3461606145790266E-4</v>
       </c>
       <c r="M4">
-        <f>'LDV psg'!M3</f>
-        <v>2.9086605032331933E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!M$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>3.4503112454012272E-4</v>
       </c>
       <c r="N4">
-        <f>'LDV psg'!N3</f>
-        <v>2.8972262451586384E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!N$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>3.6046783839253731E-4</v>
       </c>
       <c r="O4">
-        <f>'LDV psg'!O3</f>
-        <v>3.2496998697161418E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!O$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>3.7661142322346664E-4</v>
       </c>
       <c r="P4">
-        <f>'LDV psg'!P3</f>
-        <v>3.3461606145790266E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!P$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>3.9323042596637155E-4</v>
       </c>
       <c r="Q4">
-        <f>'LDV psg'!Q3</f>
-        <v>3.4503112454012272E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!Q$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>4.0681862804371229E-4</v>
       </c>
       <c r="R4">
-        <f>'LDV psg'!R3</f>
-        <v>3.6046783839253731E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!R$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>4.2149750581699105E-4</v>
       </c>
       <c r="S4">
-        <f>'LDV psg'!S3</f>
-        <v>3.7661142322346664E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!S$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>4.3552727787002534E-4</v>
       </c>
       <c r="T4">
-        <f>'LDV psg'!T3</f>
-        <v>3.9323042596637155E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!T$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>4.5787211820594976E-4</v>
       </c>
       <c r="U4">
-        <f>'LDV psg'!U3</f>
-        <v>4.0681862804371229E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!U$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>4.7636139511923167E-4</v>
       </c>
       <c r="V4">
-        <f>'LDV psg'!V3</f>
-        <v>4.2149750581699105E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!V$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>4.9474731787187772E-4</v>
       </c>
       <c r="W4">
-        <f>'LDV psg'!W3</f>
-        <v>4.3552727787002534E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!W$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>5.1365533981639411E-4</v>
       </c>
       <c r="X4">
-        <f>'LDV psg'!X3</f>
-        <v>4.5787211820594976E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!X$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>5.4269272028124177E-4</v>
       </c>
       <c r="Y4">
-        <f>'LDV psg'!Y3</f>
-        <v>4.7636139511923167E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!Y$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>5.423016176547402E-4</v>
       </c>
       <c r="Z4">
-        <f>'LDV psg'!Z3</f>
-        <v>4.9474731787187772E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!Z$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>5.4224402286642641E-4</v>
       </c>
       <c r="AA4">
-        <f>'LDV psg'!AA3</f>
-        <v>5.1365533981639411E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!AA$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>5.4206760834494573E-4</v>
       </c>
       <c r="AB4">
-        <f>'LDV psg'!AB3</f>
-        <v>5.4269272028124177E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!AB$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>5.4189067774714969E-4</v>
       </c>
       <c r="AC4">
-        <f>'LDV psg'!AC3</f>
-        <v>5.423016176547402E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!AC$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>5.4171963799186189E-4</v>
       </c>
       <c r="AD4">
-        <f>'LDV psg'!AD3</f>
-        <v>5.4224402286642641E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!AD$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>5.4140776270668409E-4</v>
       </c>
       <c r="AE4">
-        <f>'LDV psg'!AE3</f>
-        <v>5.4206760834494573E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!AE$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>5.4295307935355247E-4</v>
       </c>
       <c r="AF4">
-        <f>'LDV psg'!AF3</f>
-        <v>5.4189067774714969E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!AF$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>5.4268045456530383E-4</v>
       </c>
       <c r="AG4">
-        <f>'LDV psg'!AG3</f>
-        <v>5.4171963799186189E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!AG$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>5.4251269578111186E-4</v>
       </c>
       <c r="AH4">
-        <f>'LDV psg'!AH3</f>
-        <v>5.4140776270668409E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!AH$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>5.4235202859305594E-4</v>
       </c>
       <c r="AI4">
-        <f>'LDV psg'!AI3</f>
-        <v>5.4295307935355247E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!AI$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>5.4218265683519029E-4</v>
       </c>
       <c r="AJ4">
-        <f>'LDV psg'!AJ3</f>
-        <v>5.4268045456530383E-4</v>
+        <f>INDEX('LDV psg'!$B$3:$BA$3,1,MATCH('BHNVFEAL-LDVs-psgr'!AJ$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>5.4203836899892029E-4</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -16030,144 +16053,144 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f>'LDV psg'!B4</f>
-        <v>1.0111358409448513E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!B$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.0046324007499143E-3</v>
       </c>
       <c r="C6">
-        <f>'LDV psg'!C4</f>
-        <v>1.0063882481754357E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!C$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.0032711974945359E-3</v>
       </c>
       <c r="D6">
-        <f>'LDV psg'!D4</f>
-        <v>1.0065994284701859E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!D$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.0034239166685128E-3</v>
       </c>
       <c r="E6">
-        <f>'LDV psg'!E4</f>
-        <v>1.0057597556926302E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!E$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.002969452942846E-3</v>
       </c>
       <c r="F6">
-        <f>'LDV psg'!F4</f>
-        <v>1.0046324007499143E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!F$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.0038222279677804E-3</v>
       </c>
       <c r="G6">
-        <f>'LDV psg'!G4</f>
-        <v>1.0032711974945359E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!G$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.0047820557589028E-3</v>
       </c>
       <c r="H6">
-        <f>'LDV psg'!H4</f>
-        <v>1.0034239166685128E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!H$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.0065283689074057E-3</v>
       </c>
       <c r="I6">
-        <f>'LDV psg'!I4</f>
-        <v>1.002969452942846E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!I$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>9.9838931704244647E-4</v>
       </c>
       <c r="J6">
-        <f>'LDV psg'!J4</f>
-        <v>1.0038222279677804E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!J$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>9.9898400434497345E-4</v>
       </c>
       <c r="K6">
-        <f>'LDV psg'!K4</f>
-        <v>1.0047820557589028E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!K$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.016011043708619E-3</v>
       </c>
       <c r="L6">
-        <f>'LDV psg'!L4</f>
-        <v>1.0065283689074057E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!L$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.0215830859417257E-3</v>
       </c>
       <c r="M6">
-        <f>'LDV psg'!M4</f>
-        <v>9.9838931704244647E-4</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!M$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.0285922317327984E-3</v>
       </c>
       <c r="N6">
-        <f>'LDV psg'!N4</f>
-        <v>9.9898400434497345E-4</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!N$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.0355387529663849E-3</v>
       </c>
       <c r="O6">
-        <f>'LDV psg'!O4</f>
-        <v>1.016011043708619E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!O$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.0587573914910364E-3</v>
       </c>
       <c r="P6">
-        <f>'LDV psg'!P4</f>
-        <v>1.0215830859417257E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!P$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.0946152111314569E-3</v>
       </c>
       <c r="Q6">
-        <f>'LDV psg'!Q4</f>
-        <v>1.0285922317327984E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!Q$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.1139490480151345E-3</v>
       </c>
       <c r="R6">
-        <f>'LDV psg'!R4</f>
-        <v>1.0355387529663849E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!R$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.1418122196863402E-3</v>
       </c>
       <c r="S6">
-        <f>'LDV psg'!S4</f>
-        <v>1.0587573914910364E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!S$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.1639828626349451E-3</v>
       </c>
       <c r="T6">
-        <f>'LDV psg'!T4</f>
-        <v>1.0946152111314569E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!T$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.1978478914016946E-3</v>
       </c>
       <c r="U6">
-        <f>'LDV psg'!U4</f>
-        <v>1.1139490480151345E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!U$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.2258239110017482E-3</v>
       </c>
       <c r="V6">
-        <f>'LDV psg'!V4</f>
-        <v>1.1418122196863402E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!V$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.2502011090634831E-3</v>
       </c>
       <c r="W6">
-        <f>'LDV psg'!W4</f>
-        <v>1.1639828626349451E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!W$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.2766445900318649E-3</v>
       </c>
       <c r="X6">
-        <f>'LDV psg'!X4</f>
-        <v>1.1978478914016946E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!X$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.3160860576444196E-3</v>
       </c>
       <c r="Y6">
-        <f>'LDV psg'!Y4</f>
-        <v>1.2258239110017482E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!Y$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.3295506461778893E-3</v>
       </c>
       <c r="Z6">
-        <f>'LDV psg'!Z4</f>
-        <v>1.2502011090634831E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!Z$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.343339373039429E-3</v>
       </c>
       <c r="AA6">
-        <f>'LDV psg'!AA4</f>
-        <v>1.2766445900318649E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!AA$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.3572509178016059E-3</v>
       </c>
       <c r="AB6">
-        <f>'LDV psg'!AB4</f>
-        <v>1.3160860576444196E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!AB$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.3713407728430051E-3</v>
       </c>
       <c r="AC6">
-        <f>'LDV psg'!AC4</f>
-        <v>1.3295506461778893E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!AC$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.3856140937562043E-3</v>
       </c>
       <c r="AD6">
-        <f>'LDV psg'!AD4</f>
-        <v>1.343339373039429E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!AD$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.4000071982637676E-3</v>
       </c>
       <c r="AE6">
-        <f>'LDV psg'!AE4</f>
-        <v>1.3572509178016059E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!AE$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.4154215035624702E-3</v>
       </c>
       <c r="AF6">
-        <f>'LDV psg'!AF4</f>
-        <v>1.3713407728430051E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!AF$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.4302056019308282E-3</v>
       </c>
       <c r="AG6">
-        <f>'LDV psg'!AG4</f>
-        <v>1.3856140937562043E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!AG$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.4452271503755873E-3</v>
       </c>
       <c r="AH6">
-        <f>'LDV psg'!AH4</f>
-        <v>1.4000071982637676E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!AH$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.4604445847159198E-3</v>
       </c>
       <c r="AI6">
-        <f>'LDV psg'!AI4</f>
-        <v>1.4154215035624702E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!AI$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.4758532622872857E-3</v>
       </c>
       <c r="AJ6">
-        <f>'LDV psg'!AJ4</f>
-        <v>1.4302056019308282E-3</v>
+        <f>INDEX('LDV psg'!$B$4:$BA$4,1,MATCH('BHNVFEAL-LDVs-psgr'!AJ$1-About!$A$14,'LDV psg'!$B$2:$BA$2,0))</f>
+        <v>1.4914708856899707E-3</v>
       </c>
     </row>
     <row r="7" spans="1:36">

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A21AF18-E41A-4B31-8D96-6A3A3B048707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C88F877-632A-4501-95C7-36D5DD7F5DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="555" windowWidth="19605" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
   <si>
     <t>Sources:</t>
   </si>
@@ -380,19 +380,21 @@
   <si>
     <t>energy consumption that more closely matches EIA's AEO trajectory: freight LDVs, passenger HDVs, freight HDVs, passenger ships, passenger motorbikes.</t>
   </si>
+  <si>
+    <t>California</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
     <numFmt numFmtId="165" formatCode="#,##0_)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -1294,7 +1296,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1327,8 +1329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="155" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -1336,6 +1336,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="43" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4712,169 +4715,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>4.236427364823752E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>4.2882977835183994E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>4.3401682022130295E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>4.3920386209076769E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>4.4439090396023069E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>4.4957794582969543E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>4.5476498769915844E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>4.5995202956862317E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>4.6513907143808618E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>4.7032611330755092E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>4.7551315517701392E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>4.8070019704647866E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>4.8588723891594167E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>4.9107428078540641E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>4.9626132265486941E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>5.0144836452433242E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>5.0663540639379716E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>5.1182244826326016E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>5.170094901327249E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>5.2219653200218791E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>5.2738357387165265E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>5.3257061574111565E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>5.3775765761058039E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>5.429446994800434E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>5.4813174134950814E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>5.6525537747016295E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>5.6816948983254214E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>5.7128317518608321E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>5.7537137435165198E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>5.8053804811384778E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>5.8402553055494823E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>5.8760417107298871E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>5.9096130220580865E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>5.946019196444121E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>5.9865845018156332E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>6.0321943227520944E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>6.0839429137508894E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>6.1395089969970801E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>6.1977379967962927E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>6.2567088851316315E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>6.3167004143386532E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>6.3779136032516399E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>6.437466870978497E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>6.4981143154692399E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>6.5593323238593052E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>6.6206558943440969E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>6.6830617483670774E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>6.7444724581067943E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>6.8055623616867665E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>6.8655076394605308E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>6.9253674881163997E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>6.9843365885812099E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>7.0421403083949718E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>7.0992567085904998E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5704,199 +5707,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>5.6550914138770239E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>5.5917423769000218E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>5.5283933399230198E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>5.4650443029460177E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>5.401695265969033E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>5.338346228992031E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.2749971920150289E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>5.2116481550380268E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>5.1482991180610421E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>5.0849500810840401E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>5.021601044107038E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>4.9582520071300533E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>4.8949029701530512E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>4.8315539331760492E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>4.7682048961990471E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>4.7048558592220624E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>4.6415068222450603E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>4.5781577852680583E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>4.5148087482910562E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>4.4514597113140715E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>4.3881106743370694E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>4.3247616373600674E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>4.2614126003830653E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>4.1980635634060806E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>4.1347145264290786E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>4.0713654894520765E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>4.0080164524750744E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.9446674154980897E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.8813183785210877E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.8179693415440856E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.7546203045671009E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.6912712675900988E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.6279222306130968E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.5645731936360947E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.50122415665911E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.8258341226368855E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.0425177990638558E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.1369602145278982E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.1866725580745358E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.2176784865192677E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.2673519826153288E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.3038240919707824E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>3.3340389823551702E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>3.3475402773417714E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>3.3555107094994109E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>3.3533649804280095E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>3.3530916094466514E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>3.3543094523282268E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>3.3562165718775656E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>3.3577393040427292E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>3.3592389782957394E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>3.3615828155893885E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>3.3637923107499002E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>3.3656727929620473E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>3.3676884833871952E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>3.3691991114356807E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>3.3705013729136348E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>3.3713686099786852E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>3.3722694633495147E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>3.3729739602263772E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>3.3742953237129352E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>3.3751721202413692E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>3.3760101841942016E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>3.3764787130259203E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>3.3772719520374359E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7786,10 +7789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7798,12 +7801,18 @@
     <col min="2" max="2" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="31">
+        <v>45321</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7811,58 +7820,58 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="B7" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="B8" s="5">
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="B14" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -9128,99 +9137,99 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3780336177922486E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>1.394702045298585E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4113704728049271E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4280389003112637E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4447073278176057E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4613757553239421E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4780441828302841E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4947126103366205E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5113810378429625E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5280494653492991E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5447178928556411E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5613863203619775E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5780547478683195E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5947231753746559E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6113916028809925E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6280600303873345E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6447284578936709E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>1.661396885400013E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6780653129063493E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6947337404126914E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.711402167919028E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.72807059542537E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7447390229317064E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7614074504380484E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
@@ -9228,23 +9237,23 @@
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>1.8164338208636196E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>1.8257982470394711E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>1.8358039959613347E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>1.8489413203048922E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>1.865544295415052E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
@@ -9445,99 +9454,99 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!Q6</f>
-        <v>4.2882977835183994E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!R6</f>
-        <v>4.3401682022130295E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!S6</f>
-        <v>4.3920386209076769E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!T6</f>
-        <v>4.4439090396023069E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!U6</f>
-        <v>4.4957794582969543E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!V6</f>
-        <v>4.5476498769915844E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!W6</f>
-        <v>4.5995202956862317E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!X6</f>
-        <v>4.6513907143808618E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!Y6</f>
-        <v>4.7032611330755092E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!Z6</f>
-        <v>4.7551315517701392E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!AA6</f>
-        <v>4.8070019704647866E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!AB6</f>
-        <v>4.8588723891594167E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AC6</f>
-        <v>4.9107428078540641E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AD6</f>
-        <v>4.9626132265486941E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AE6</f>
-        <v>5.0144836452433242E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AF6</f>
-        <v>5.0663540639379716E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AG6</f>
-        <v>5.1182244826326016E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AH6</f>
-        <v>5.170094901327249E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AI6</f>
-        <v>5.2219653200218791E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AJ6</f>
-        <v>5.2738357387165265E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AK6</f>
-        <v>5.3257061574111565E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AL6</f>
-        <v>5.3775765761058039E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AM6</f>
-        <v>5.429446994800434E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AN6</f>
-        <v>5.4813174134950814E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AO6</f>
@@ -9545,23 +9554,23 @@
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AP6</f>
-        <v>5.6525537747016295E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AQ6</f>
-        <v>5.6816948983254214E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AR6</f>
-        <v>5.7128317518608321E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AS6</f>
-        <v>5.7537137435165198E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AT6</f>
-        <v>5.8053804811384778E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -9762,99 +9771,99 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.2864893350555196E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.3020504606639086E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.3176115862723028E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.3331727118806919E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.3487338374890861E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.3642949630974751E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.3798560887058693E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.3954172143142583E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.4109783399226525E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.4265394655310416E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.4421005911394358E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.4576617167478248E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.473222842356219E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.488783967964608E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.504345093572997E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.5199062191813913E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.5354673447897803E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.5510284703981745E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.5665895960065635E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.5821507216149577E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.5977118472233467E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.613272972831741E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.62883409844013E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.6443952240485242E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
@@ -9862,23 +9871,23 @@
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.6957661324104886E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.7045084694976261E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.7138495255582494E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.7261141230549557E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.7416141443415431E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
@@ -10770,10 +10779,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10783,7 +10792,7 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:32" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -10878,134 +10887,132 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
+    <row r="2" spans="1:32" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
         <f>Extrapolations!G9</f>
-        <v>1.7968922323952086E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="C2" s="4">
         <f>Extrapolations!H9</f>
-        <v>1.7765351800131182E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="D2" s="4">
         <f>Extrapolations!I9</f>
-        <v>1.7561781276310348E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="E2" s="4">
         <f>Extrapolations!J9</f>
-        <v>1.7358210752489514E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="F2" s="4">
         <f>Extrapolations!K9</f>
-        <v>1.7154640228668611E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="G2" s="4">
         <f>Extrapolations!L9</f>
-        <v>1.6951069704847777E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="H2" s="4">
         <f>Extrapolations!M9</f>
-        <v>1.6747499181026873E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="I2" s="4">
         <f>Extrapolations!N9</f>
-        <v>1.6543928657206039E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="J2" s="4">
         <f>Extrapolations!O9</f>
-        <v>1.6340358133385205E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="K2" s="4">
         <f>Extrapolations!P9</f>
-        <v>1.6136787609564301E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="L2" s="4">
         <f>Extrapolations!Q9</f>
-        <v>1.5933217085743467E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="M2" s="4">
         <f>Extrapolations!R9</f>
-        <v>1.5729646561922633E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="N2" s="4">
         <f>Extrapolations!S9</f>
-        <v>1.552607603810173E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="O2" s="4">
         <f>Extrapolations!T9</f>
-        <v>1.5322505514280896E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="P2" s="4">
         <f>Extrapolations!U9</f>
-        <v>1.5118934990460062E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="Q2" s="4">
         <f>Extrapolations!V9</f>
-        <v>1.4915364466639158E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="R2" s="4">
         <f>Extrapolations!W9</f>
-        <v>1.4711793942818324E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="S2" s="4">
         <f>Extrapolations!X9</f>
-        <v>1.450822341899749E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="T2" s="4">
         <f>Extrapolations!Y9</f>
-        <v>1.4304652895176587E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="U2" s="4">
         <f>Extrapolations!Z9</f>
-        <v>1.4101082371355753E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="V2" s="4">
         <f>Extrapolations!AA9</f>
-        <v>1.3897511847534849E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="W2" s="4">
         <f>Extrapolations!AB9</f>
-        <v>1.3693941323714015E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="X2" s="4">
         <f>Extrapolations!AC9</f>
-        <v>1.3490370799893181E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="Y2" s="4">
         <f>Extrapolations!AD9</f>
-        <v>1.3286800276072278E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="Z2" s="4">
         <f>Extrapolations!AE9</f>
-        <v>1.3083229752251443E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AA2" s="4">
         <f>Extrapolations!AF9</f>
-        <v>1.2879659228430609E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AB2" s="4">
         <f>Extrapolations!AG9</f>
-        <v>1.2676088704609706E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AC2" s="4">
         <f>Extrapolations!AH9</f>
-        <v>1.2472518180788872E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AD2" s="4">
         <f>Extrapolations!AI9</f>
-        <v>1.2268947656968038E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AE2" s="4">
         <f>Extrapolations!AJ9</f>
-        <v>1.2065377133147134E-3</v>
-      </c>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -11100,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11195,134 +11202,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22">
-        <f>Extrapolations!Q6</f>
-        <v>4.2882977835183994E-4</v>
-      </c>
-      <c r="C5" s="22">
-        <f>Extrapolations!R6</f>
-        <v>4.3401682022130295E-4</v>
-      </c>
-      <c r="D5" s="22">
-        <f>Extrapolations!S6</f>
-        <v>4.3920386209076769E-4</v>
-      </c>
-      <c r="E5" s="22">
-        <f>Extrapolations!T6</f>
-        <v>4.4439090396023069E-4</v>
-      </c>
-      <c r="F5" s="22">
-        <f>Extrapolations!U6</f>
-        <v>4.4957794582969543E-4</v>
-      </c>
-      <c r="G5" s="22">
-        <f>Extrapolations!V6</f>
-        <v>4.5476498769915844E-4</v>
-      </c>
-      <c r="H5" s="22">
-        <f>Extrapolations!W6</f>
-        <v>4.5995202956862317E-4</v>
-      </c>
-      <c r="I5" s="22">
-        <f>Extrapolations!X6</f>
-        <v>4.6513907143808618E-4</v>
-      </c>
-      <c r="J5" s="22">
-        <f>Extrapolations!Y6</f>
-        <v>4.7032611330755092E-4</v>
-      </c>
-      <c r="K5" s="22">
-        <f>Extrapolations!Z6</f>
-        <v>4.7551315517701392E-4</v>
-      </c>
-      <c r="L5" s="22">
-        <f>Extrapolations!AA6</f>
-        <v>4.8070019704647866E-4</v>
-      </c>
-      <c r="M5" s="22">
-        <f>Extrapolations!AB6</f>
-        <v>4.8588723891594167E-4</v>
-      </c>
-      <c r="N5" s="22">
-        <f>Extrapolations!AC6</f>
-        <v>4.9107428078540641E-4</v>
-      </c>
-      <c r="O5" s="22">
-        <f>Extrapolations!AD6</f>
-        <v>4.9626132265486941E-4</v>
-      </c>
-      <c r="P5" s="22">
-        <f>Extrapolations!AE6</f>
-        <v>5.0144836452433242E-4</v>
-      </c>
-      <c r="Q5" s="22">
-        <f>Extrapolations!AF6</f>
-        <v>5.0663540639379716E-4</v>
-      </c>
-      <c r="R5" s="22">
-        <f>Extrapolations!AG6</f>
-        <v>5.1182244826326016E-4</v>
-      </c>
-      <c r="S5" s="22">
-        <f>Extrapolations!AH6</f>
-        <v>5.170094901327249E-4</v>
-      </c>
-      <c r="T5" s="22">
-        <f>Extrapolations!AI6</f>
-        <v>5.2219653200218791E-4</v>
-      </c>
-      <c r="U5" s="22">
-        <f>Extrapolations!AJ6</f>
-        <v>5.2738357387165265E-4</v>
-      </c>
-      <c r="V5" s="22">
-        <f>Extrapolations!AK6</f>
-        <v>5.3257061574111565E-4</v>
-      </c>
-      <c r="W5" s="22">
-        <f>Extrapolations!AL6</f>
-        <v>5.3775765761058039E-4</v>
-      </c>
-      <c r="X5" s="22">
-        <f>Extrapolations!AM6</f>
-        <v>5.429446994800434E-4</v>
-      </c>
-      <c r="Y5" s="22">
-        <f>Extrapolations!AN6</f>
-        <v>5.4813174134950814E-4</v>
-      </c>
-      <c r="Z5" s="22">
-        <f>Extrapolations!AO6</f>
-        <v>5.7245968727451246E-4</v>
-      </c>
-      <c r="AA5" s="22">
-        <f>Extrapolations!AP6</f>
-        <v>5.6525537747016295E-4</v>
-      </c>
-      <c r="AB5" s="22">
-        <f>Extrapolations!AQ6</f>
-        <v>5.6816948983254214E-4</v>
-      </c>
-      <c r="AC5" s="22">
-        <f>Extrapolations!AR6</f>
-        <v>5.7128317518608321E-4</v>
-      </c>
-      <c r="AD5" s="22">
-        <f>Extrapolations!AS6</f>
-        <v>5.7537137435165198E-4</v>
-      </c>
-      <c r="AE5" s="22">
-        <f>Extrapolations!AT6</f>
-        <v>5.8053804811384778E-4</v>
-      </c>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
+      <c r="B5" s="29">
+        <f>Extrapolations!G8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="C5" s="29">
+        <f>Extrapolations!H8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="D5" s="29">
+        <f>Extrapolations!I8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="E5" s="29">
+        <f>Extrapolations!J8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="F5" s="29">
+        <f>Extrapolations!K8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="G5" s="29">
+        <f>Extrapolations!L8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="H5" s="29">
+        <f>Extrapolations!M8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="I5" s="29">
+        <f>Extrapolations!N8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="J5" s="29">
+        <f>Extrapolations!O8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="K5" s="29">
+        <f>Extrapolations!P8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="L5" s="29">
+        <f>Extrapolations!Q8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="M5" s="29">
+        <f>Extrapolations!R8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="N5" s="29">
+        <f>Extrapolations!S8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="O5" s="29">
+        <f>Extrapolations!T8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="P5" s="29">
+        <f>Extrapolations!U8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="Q5" s="29">
+        <f>Extrapolations!V8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="R5" s="29">
+        <f>Extrapolations!W8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="S5" s="29">
+        <f>Extrapolations!X8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="T5" s="29">
+        <f>Extrapolations!Y8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="U5" s="29">
+        <f>Extrapolations!Z8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="V5" s="29">
+        <f>Extrapolations!AA8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="W5" s="29">
+        <f>Extrapolations!AB8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="X5" s="29">
+        <f>Extrapolations!AC8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="Y5" s="29">
+        <f>Extrapolations!AD8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="Z5" s="29">
+        <f>Extrapolations!AE8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AA5" s="29">
+        <f>Extrapolations!AF8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AB5" s="29">
+        <f>Extrapolations!AG8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AC5" s="29">
+        <f>Extrapolations!AH8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AD5" s="29">
+        <f>Extrapolations!AI8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AE5" s="29">
+        <f>Extrapolations!AJ8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -11417,7 +11422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -11512,165 +11517,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
-      <c r="A8" t="s">
+    <row r="8" spans="1:32" s="4" customFormat="1">
+      <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.2864893350555196E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.3020504606639086E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.3176115862723028E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.3331727118806919E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.3487338374890861E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.3642949630974751E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.3798560887058693E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.3954172143142583E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.4109783399226525E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.4265394655310416E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.4421005911394358E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.4576617167478248E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.473222842356219E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.488783967964608E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.504345093572997E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.5199062191813913E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.5354673447897803E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.5510284703981745E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.5665895960065635E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.5821507216149577E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.5977118472233467E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.613272972831741E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.62883409844013E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.6443952240485242E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>1.7173790618235372E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.6957661324104886E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.7045084694976261E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.7138495255582494E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.7261141230549557E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.7416141443415431E-3</v>
-      </c>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
+        <v>2.1523608730573507E-4</v>
+      </c>
     </row>
-    <row r="13" spans="1:34">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
+    <row r="13" spans="1:32">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11685,7 +11688,7 @@
   <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16206,8 +16209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16811,91 +16814,91 @@
         <v>5.7245968727451246E-4</v>
       </c>
       <c r="E12" s="4">
-        <v>5.6525537747016295E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="F12" s="4">
-        <v>5.6816948983254214E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="G12" s="4">
-        <v>5.7128317518608321E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="H12" s="4">
-        <v>5.7537137435165198E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="I12" s="4">
-        <v>5.8053804811384778E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="J12" s="4">
-        <v>5.8402553055494823E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="K12" s="4">
-        <v>5.8760417107298871E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="L12" s="4">
-        <v>5.9096130220580865E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="M12" s="4">
-        <v>5.946019196444121E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="N12" s="4">
-        <v>5.9865845018156332E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="O12" s="4">
-        <v>6.0321943227520944E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="P12" s="4">
-        <v>6.0839429137508894E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Q12" s="4">
-        <v>6.1395089969970801E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="R12" s="4">
-        <v>6.1977379967962927E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="S12" s="4">
-        <v>6.2567088851316315E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="T12" s="4">
-        <v>6.3167004143386532E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="U12" s="4">
-        <v>6.3779136032516399E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="V12" s="4">
-        <v>6.437466870978497E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="W12" s="4">
-        <v>6.4981143154692399E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="X12" s="4">
-        <v>6.5593323238593052E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Y12" s="4">
-        <v>6.6206558943440969E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Z12" s="4">
-        <v>6.6830617483670774E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AA12" s="4">
-        <v>6.7444724581067943E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AB12" s="4">
-        <v>6.8055623616867665E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AC12" s="4">
-        <v>6.8655076394605308E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AD12" s="4">
-        <v>6.9253674881163997E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AE12" s="4">
-        <v>6.9843365885812099E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AF12" s="4">
-        <v>7.0421403083949718E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AG12" s="4">
-        <v>7.0992567085904998E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -17018,94 +17021,94 @@
         <v>5</v>
       </c>
       <c r="D14" s="4">
-        <v>3.8258341226368855E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="E14" s="4">
-        <v>3.0425177990638558E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="F14" s="4">
-        <v>3.1369602145278982E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="G14" s="4">
-        <v>3.1866725580745358E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="H14" s="4">
-        <v>3.2176784865192677E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="I14" s="4">
-        <v>3.2673519826153288E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="J14" s="4">
-        <v>3.3038240919707824E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="K14" s="4">
-        <v>3.3340389823551702E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="L14" s="4">
-        <v>3.3475402773417714E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="M14" s="4">
-        <v>3.3555107094994109E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="N14" s="4">
-        <v>3.3533649804280095E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="O14" s="4">
-        <v>3.3530916094466514E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="P14" s="4">
-        <v>3.3543094523282268E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="Q14" s="4">
-        <v>3.3562165718775656E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="R14" s="4">
-        <v>3.3577393040427292E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="S14" s="4">
-        <v>3.3592389782957394E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="T14" s="4">
-        <v>3.3615828155893885E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="U14" s="4">
-        <v>3.3637923107499002E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="V14" s="4">
-        <v>3.3656727929620473E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="W14" s="4">
-        <v>3.3676884833871952E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="X14" s="4">
-        <v>3.3691991114356807E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="Y14" s="4">
-        <v>3.3705013729136348E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="Z14" s="4">
-        <v>3.3713686099786852E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AA14" s="4">
-        <v>3.3722694633495147E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AB14" s="4">
-        <v>3.3729739602263772E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AC14" s="4">
-        <v>3.3742953237129352E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AD14" s="4">
-        <v>3.3751721202413692E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AE14" s="4">
-        <v>3.3760101841942016E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AF14" s="4">
-        <v>3.3764787130259203E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AG14" s="4">
-        <v>3.3772719520374359E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
@@ -17123,94 +17126,94 @@
         <v>2</v>
       </c>
       <c r="D15" s="4">
-        <v>1.2294220931562134E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="E15" s="4">
-        <v>9.7770537903301043E-4</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="F15" s="4">
-        <v>1.0080542097404184E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="G15" s="4">
-        <v>1.0240291452707345E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="H15" s="4">
-        <v>1.0339928217467291E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="I15" s="4">
-        <v>1.049955273747318E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="J15" s="4">
-        <v>1.0616754935969699E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="K15" s="4">
-        <v>1.0713849719983116E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="L15" s="4">
-        <v>1.0757235789035442E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="M15" s="4">
-        <v>1.0782848570647235E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="N15" s="4">
-        <v>1.0775953324691067E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="O15" s="4">
-        <v>1.0775074853975044E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="P15" s="4">
-        <v>1.0778988361191009E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="Q15" s="4">
-        <v>1.0785116841499065E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="R15" s="4">
-        <v>1.0790010102695979E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="S15" s="4">
-        <v>1.0794829267876918E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="T15" s="4">
-        <v>1.0802361129581342E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="U15" s="4">
-        <v>1.0809461286247785E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="V15" s="4">
-        <v>1.0815504168148291E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="W15" s="4">
-        <v>1.0821981538212447E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="X15" s="4">
-        <v>1.0826835903137368E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="Y15" s="4">
-        <v>1.0831020687371974E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="Z15" s="4">
-        <v>1.0833807531687749E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AA15" s="4">
-        <v>1.0836702401149649E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AB15" s="4">
-        <v>1.0838966283997708E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AC15" s="4">
-        <v>1.0843212452052544E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AD15" s="4">
-        <v>1.0846030015461477E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AE15" s="4">
-        <v>1.0848723112720957E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AF15" s="4">
-        <v>1.0850228718239992E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AG15" s="4">
-        <v>1.0852777771687293E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
@@ -18627,16 +18630,16 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>1.232672246515414E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="C5">
-        <v>4.2170366328158899E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="D5">
-        <v>4.2170366328158899E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="E5">
-        <v>4.2170366328158899E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18645,7 +18648,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.2651109898447668E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -19282,15 +19285,15 @@
   <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="40" max="40" width="8.7109375" style="26"/>
+    <col min="40" max="40" width="8.7109375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -19405,7 +19408,7 @@
       <c r="AM1">
         <v>2019</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="25">
         <v>2020</v>
       </c>
       <c r="AO1">
@@ -19582,7 +19585,7 @@
         <f t="shared" si="0"/>
         <v>3.4824495702621549E-4</v>
       </c>
-      <c r="AN2" s="28">
+      <c r="AN2" s="26">
         <f t="shared" si="0"/>
         <v>3.5107788164238408E-4</v>
       </c>
@@ -19792,7 +19795,7 @@
         <f t="array" ref="AM3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AM1)</f>
         <v>1.0444155998202975E-4</v>
       </c>
-      <c r="AN3" s="28" cm="1">
+      <c r="AN3" s="26" cm="1">
         <f t="array" ref="AN3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AN1)</f>
         <v>1.0688599085026222E-4</v>
       </c>
@@ -20047,7 +20050,7 @@
         <f>AM5/AN5*AN4</f>
         <v>1.1237863961245848E-3</v>
       </c>
-      <c r="AN4" s="29">
+      <c r="AN4" s="27">
         <f>AN5/AO5*AO4</f>
         <v>1.1204363366810234E-3</v>
       </c>
@@ -20230,7 +20233,7 @@
         <f>V5</f>
         <v>7.8040477200267344E-4</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="23">
         <f>Calculations!B22</f>
         <v>7.8040477200267344E-4</v>
       </c>
@@ -20302,7 +20305,7 @@
         <f t="shared" si="3"/>
         <v>7.4276317604295334E-4</v>
       </c>
-      <c r="AN5" s="28">
+      <c r="AN5" s="26">
         <f t="shared" si="3"/>
         <v>7.4054896451591099E-4</v>
       </c>
@@ -20451,103 +20454,103 @@
       <c r="O6" s="9"/>
       <c r="P6" s="4">
         <f>TREND($AO6:$BR6,$AO$1:$BR$1,P$1)</f>
-        <v>4.236427364823752E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" ref="Q6:AN6" si="4">TREND($AO6:$BR6,$AO$1:$BR$1,Q$1)</f>
-        <v>4.2882977835183994E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="4"/>
-        <v>4.3401682022130295E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="4"/>
-        <v>4.3920386209076769E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="4"/>
-        <v>4.4439090396023069E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="4"/>
-        <v>4.4957794582969543E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="4"/>
-        <v>4.5476498769915844E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="4"/>
-        <v>4.5995202956862317E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="X6" s="4">
         <f t="shared" si="4"/>
-        <v>4.6513907143808618E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Y6" s="4">
         <f t="shared" si="4"/>
-        <v>4.7032611330755092E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="4"/>
-        <v>4.7551315517701392E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AA6" s="4">
         <f t="shared" si="4"/>
-        <v>4.8070019704647866E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AB6" s="4">
         <f t="shared" si="4"/>
-        <v>4.8588723891594167E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AC6" s="4">
         <f t="shared" si="4"/>
-        <v>4.9107428078540641E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" si="4"/>
-        <v>4.9626132265486941E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AE6" s="4">
         <f t="shared" si="4"/>
-        <v>5.0144836452433242E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AF6" s="4">
         <f t="shared" si="4"/>
-        <v>5.0663540639379716E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="4"/>
-        <v>5.1182244826326016E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AH6" s="4">
         <f t="shared" si="4"/>
-        <v>5.170094901327249E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AI6" s="4">
         <f t="shared" si="4"/>
-        <v>5.2219653200218791E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AJ6" s="4">
         <f t="shared" si="4"/>
-        <v>5.2738357387165265E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AK6" s="4">
         <f t="shared" si="4"/>
-        <v>5.3257061574111565E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AL6" s="4">
         <f t="shared" si="4"/>
-        <v>5.3775765761058039E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AM6" s="4">
         <f t="shared" si="4"/>
-        <v>5.429446994800434E-4</v>
-      </c>
-      <c r="AN6" s="28">
+        <v>5.7245968727451246E-4</v>
+      </c>
+      <c r="AN6" s="26">
         <f t="shared" si="4"/>
-        <v>5.4813174134950814E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AO6" s="10">
         <f>BNVFE!D12</f>
@@ -20555,119 +20558,119 @@
       </c>
       <c r="AP6" s="10">
         <f>BNVFE!E12</f>
-        <v>5.6525537747016295E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AQ6" s="10">
         <f>BNVFE!F12</f>
-        <v>5.6816948983254214E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AR6" s="10">
         <f>BNVFE!G12</f>
-        <v>5.7128317518608321E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AS6" s="10">
         <f>BNVFE!H12</f>
-        <v>5.7537137435165198E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AT6" s="10">
         <f>BNVFE!I12</f>
-        <v>5.8053804811384778E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AU6" s="10">
         <f>BNVFE!J12</f>
-        <v>5.8402553055494823E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AV6" s="10">
         <f>BNVFE!K12</f>
-        <v>5.8760417107298871E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AW6" s="10">
         <f>BNVFE!L12</f>
-        <v>5.9096130220580865E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AX6" s="10">
         <f>BNVFE!M12</f>
-        <v>5.946019196444121E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AY6" s="10">
         <f>BNVFE!N12</f>
-        <v>5.9865845018156332E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AZ6" s="10">
         <f>BNVFE!O12</f>
-        <v>6.0321943227520944E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BA6" s="10">
         <f>BNVFE!P12</f>
-        <v>6.0839429137508894E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BB6" s="10">
         <f>BNVFE!Q12</f>
-        <v>6.1395089969970801E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BC6" s="10">
         <f>BNVFE!R12</f>
-        <v>6.1977379967962927E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BD6" s="10">
         <f>BNVFE!S12</f>
-        <v>6.2567088851316315E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BE6" s="10">
         <f>BNVFE!T12</f>
-        <v>6.3167004143386532E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BF6" s="10">
         <f>BNVFE!U12</f>
-        <v>6.3779136032516399E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BG6" s="10">
         <f>BNVFE!V12</f>
-        <v>6.437466870978497E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BH6" s="10">
         <f>BNVFE!W12</f>
-        <v>6.4981143154692399E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BI6" s="10">
         <f>BNVFE!X12</f>
-        <v>6.5593323238593052E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BJ6" s="10">
         <f>BNVFE!Y12</f>
-        <v>6.6206558943440969E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BK6" s="10">
         <f>BNVFE!Z12</f>
-        <v>6.6830617483670774E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BL6" s="10">
         <f>BNVFE!AA12</f>
-        <v>6.7444724581067943E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BM6" s="10">
         <f>BNVFE!AB12</f>
-        <v>6.8055623616867665E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BN6" s="10">
         <f>BNVFE!AC12</f>
-        <v>6.8655076394605308E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BO6" s="10">
         <f>BNVFE!AD12</f>
-        <v>6.9253674881163997E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BP6" s="10">
         <f>BNVFE!AE12</f>
-        <v>6.9843365885812099E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BQ6" s="10">
         <f>BNVFE!AF12</f>
-        <v>7.0421403083949718E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BR6" s="10">
         <f>BNVFE!AG12</f>
-        <v>7.0992567085904998E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BS6" s="10"/>
       <c r="BT6" s="4"/>
@@ -20788,7 +20791,7 @@
         <f t="shared" si="5"/>
         <v>4.6159076773102222E-5</v>
       </c>
-      <c r="AN7" s="28">
+      <c r="AN7" s="26">
         <f t="shared" si="5"/>
         <v>4.6599105683549815E-5</v>
       </c>
@@ -20926,264 +20929,264 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="4">
-        <f>TREND($AO8:$AT8,$AO$1:$AT$1,F$1)</f>
-        <v>5.6550914138770239E-4</v>
+        <f>SYFAFE!$E$5</f>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" ref="G8:AN9" si="6">TREND($AO8:$AT8,$AO$1:$AT$1,G$1)</f>
-        <v>5.5917423769000218E-4</v>
+        <f>F8</f>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="6"/>
-        <v>5.5283933399230198E-4</v>
+        <f t="shared" ref="H8:BR8" si="6">G8</f>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="6"/>
-        <v>5.4650443029460177E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="6"/>
-        <v>5.401695265969033E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="6"/>
-        <v>5.338346228992031E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="6"/>
-        <v>5.2749971920150289E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="6"/>
-        <v>5.2116481550380268E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="6"/>
-        <v>5.1482991180610421E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="6"/>
-        <v>5.0849500810840401E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="6"/>
-        <v>5.021601044107038E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="6"/>
-        <v>4.9582520071300533E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="6"/>
-        <v>4.8949029701530512E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="6"/>
-        <v>4.8315539331760492E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="6"/>
-        <v>4.7682048961990471E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="6"/>
-        <v>4.7048558592220624E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="6"/>
-        <v>4.6415068222450603E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="6"/>
-        <v>4.5781577852680583E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="6"/>
-        <v>4.5148087482910562E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="6"/>
-        <v>4.4514597113140715E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="6"/>
-        <v>4.3881106743370694E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="6"/>
-        <v>4.3247616373600674E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="6"/>
-        <v>4.2614126003830653E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="6"/>
-        <v>4.1980635634060806E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="6"/>
-        <v>4.1347145264290786E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0713654894520765E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0080164524750744E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9446674154980897E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AH8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8813183785210877E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AI8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8179693415440856E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AJ8" s="4">
         <f t="shared" si="6"/>
-        <v>3.7546203045671009E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AK8" s="4">
         <f t="shared" si="6"/>
-        <v>3.6912712675900988E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AL8" s="4">
         <f t="shared" si="6"/>
-        <v>3.6279222306130968E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AM8" s="4">
         <f t="shared" si="6"/>
-        <v>3.5645731936360947E-4</v>
-      </c>
-      <c r="AN8" s="28">
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AN8" s="4">
         <f t="shared" si="6"/>
-        <v>3.50122415665911E-4</v>
-      </c>
-      <c r="AO8" s="10">
-        <f>BNVFE!D14</f>
-        <v>3.8258341226368855E-4</v>
-      </c>
-      <c r="AP8" s="10">
-        <f>BNVFE!E14</f>
-        <v>3.0425177990638558E-4</v>
-      </c>
-      <c r="AQ8" s="10">
-        <f>BNVFE!F14</f>
-        <v>3.1369602145278982E-4</v>
-      </c>
-      <c r="AR8" s="10">
-        <f>BNVFE!G14</f>
-        <v>3.1866725580745358E-4</v>
-      </c>
-      <c r="AS8" s="10">
-        <f>BNVFE!H14</f>
-        <v>3.2176784865192677E-4</v>
-      </c>
-      <c r="AT8" s="10">
-        <f>BNVFE!I14</f>
-        <v>3.2673519826153288E-4</v>
-      </c>
-      <c r="AU8" s="10">
-        <f>BNVFE!J14</f>
-        <v>3.3038240919707824E-4</v>
-      </c>
-      <c r="AV8" s="10">
-        <f>BNVFE!K14</f>
-        <v>3.3340389823551702E-4</v>
-      </c>
-      <c r="AW8" s="10">
-        <f>BNVFE!L14</f>
-        <v>3.3475402773417714E-4</v>
-      </c>
-      <c r="AX8" s="10">
-        <f>BNVFE!M14</f>
-        <v>3.3555107094994109E-4</v>
-      </c>
-      <c r="AY8" s="10">
-        <f>BNVFE!N14</f>
-        <v>3.3533649804280095E-4</v>
-      </c>
-      <c r="AZ8" s="10">
-        <f>BNVFE!O14</f>
-        <v>3.3530916094466514E-4</v>
-      </c>
-      <c r="BA8" s="10">
-        <f>BNVFE!P14</f>
-        <v>3.3543094523282268E-4</v>
-      </c>
-      <c r="BB8" s="10">
-        <f>BNVFE!Q14</f>
-        <v>3.3562165718775656E-4</v>
-      </c>
-      <c r="BC8" s="10">
-        <f>BNVFE!R14</f>
-        <v>3.3577393040427292E-4</v>
-      </c>
-      <c r="BD8" s="10">
-        <f>BNVFE!S14</f>
-        <v>3.3592389782957394E-4</v>
-      </c>
-      <c r="BE8" s="10">
-        <f>BNVFE!T14</f>
-        <v>3.3615828155893885E-4</v>
-      </c>
-      <c r="BF8" s="10">
-        <f>BNVFE!U14</f>
-        <v>3.3637923107499002E-4</v>
-      </c>
-      <c r="BG8" s="10">
-        <f>BNVFE!V14</f>
-        <v>3.3656727929620473E-4</v>
-      </c>
-      <c r="BH8" s="10">
-        <f>BNVFE!W14</f>
-        <v>3.3676884833871952E-4</v>
-      </c>
-      <c r="BI8" s="10">
-        <f>BNVFE!X14</f>
-        <v>3.3691991114356807E-4</v>
-      </c>
-      <c r="BJ8" s="10">
-        <f>BNVFE!Y14</f>
-        <v>3.3705013729136348E-4</v>
-      </c>
-      <c r="BK8" s="10">
-        <f>BNVFE!Z14</f>
-        <v>3.3713686099786852E-4</v>
-      </c>
-      <c r="BL8" s="10">
-        <f>BNVFE!AA14</f>
-        <v>3.3722694633495147E-4</v>
-      </c>
-      <c r="BM8" s="10">
-        <f>BNVFE!AB14</f>
-        <v>3.3729739602263772E-4</v>
-      </c>
-      <c r="BN8" s="10">
-        <f>BNVFE!AC14</f>
-        <v>3.3742953237129352E-4</v>
-      </c>
-      <c r="BO8" s="10">
-        <f>BNVFE!AD14</f>
-        <v>3.3751721202413692E-4</v>
-      </c>
-      <c r="BP8" s="10">
-        <f>BNVFE!AE14</f>
-        <v>3.3760101841942016E-4</v>
-      </c>
-      <c r="BQ8" s="10">
-        <f>BNVFE!AF14</f>
-        <v>3.3764787130259203E-4</v>
-      </c>
-      <c r="BR8" s="10">
-        <f>BNVFE!AG14</f>
-        <v>3.3772719520374359E-4</v>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AO8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AP8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AQ8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AR8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AS8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AT8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AU8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AV8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AW8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AX8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AY8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AZ8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BA8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BB8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BC8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BD8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BE8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BF8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BG8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BH8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BI8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BJ8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BK8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BL8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BM8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BN8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BO8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BP8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BQ8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BR8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="BS8" s="10"/>
       <c r="BT8" s="4"/>
@@ -21199,264 +21202,264 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="19">
-        <f>TREND($AO9:$AT9,$AO$1:$AT$1,F$1)</f>
-        <v>1.817249284777292E-3</v>
-      </c>
-      <c r="G9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.7968922323952086E-3</v>
-      </c>
-      <c r="H9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.7765351800131182E-3</v>
-      </c>
-      <c r="I9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.7561781276310348E-3</v>
-      </c>
-      <c r="J9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.7358210752489514E-3</v>
-      </c>
-      <c r="K9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.7154640228668611E-3</v>
-      </c>
-      <c r="L9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.6951069704847777E-3</v>
-      </c>
-      <c r="M9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.6747499181026873E-3</v>
-      </c>
-      <c r="N9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.6543928657206039E-3</v>
-      </c>
-      <c r="O9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.6340358133385205E-3</v>
-      </c>
-      <c r="P9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.6136787609564301E-3</v>
-      </c>
-      <c r="Q9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.5933217085743467E-3</v>
-      </c>
-      <c r="R9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.5729646561922633E-3</v>
-      </c>
-      <c r="S9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.552607603810173E-3</v>
-      </c>
-      <c r="T9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.5322505514280896E-3</v>
-      </c>
-      <c r="U9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.5118934990460062E-3</v>
-      </c>
-      <c r="V9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.4915364466639158E-3</v>
-      </c>
-      <c r="W9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.4711793942818324E-3</v>
-      </c>
-      <c r="X9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.450822341899749E-3</v>
-      </c>
-      <c r="Y9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.4304652895176587E-3</v>
-      </c>
-      <c r="Z9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.4101082371355753E-3</v>
-      </c>
-      <c r="AA9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.3897511847534849E-3</v>
-      </c>
-      <c r="AB9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.3693941323714015E-3</v>
-      </c>
-      <c r="AC9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.3490370799893181E-3</v>
-      </c>
-      <c r="AD9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.3286800276072278E-3</v>
-      </c>
-      <c r="AE9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.3083229752251443E-3</v>
-      </c>
-      <c r="AF9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.2879659228430609E-3</v>
-      </c>
-      <c r="AG9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.2676088704609706E-3</v>
-      </c>
-      <c r="AH9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.2472518180788872E-3</v>
-      </c>
-      <c r="AI9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.2268947656968038E-3</v>
-      </c>
-      <c r="AJ9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.2065377133147134E-3</v>
-      </c>
-      <c r="AK9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.18618066093263E-3</v>
-      </c>
-      <c r="AL9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.1658236085505466E-3</v>
-      </c>
-      <c r="AM9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.1454665561684563E-3</v>
-      </c>
-      <c r="AN9" s="29">
-        <f t="shared" si="6"/>
-        <v>1.1251095037863729E-3</v>
-      </c>
-      <c r="AO9" s="10">
-        <f>BNVFE!D15</f>
-        <v>1.2294220931562134E-3</v>
-      </c>
-      <c r="AP9" s="10">
-        <f>BNVFE!E15</f>
-        <v>9.7770537903301043E-4</v>
-      </c>
-      <c r="AQ9" s="10">
-        <f>BNVFE!F15</f>
-        <v>1.0080542097404184E-3</v>
-      </c>
-      <c r="AR9" s="10">
-        <f>BNVFE!G15</f>
-        <v>1.0240291452707345E-3</v>
-      </c>
-      <c r="AS9" s="10">
-        <f>BNVFE!H15</f>
-        <v>1.0339928217467291E-3</v>
-      </c>
-      <c r="AT9" s="10">
-        <f>BNVFE!I15</f>
-        <v>1.049955273747318E-3</v>
-      </c>
-      <c r="AU9" s="10">
-        <f>BNVFE!J15</f>
-        <v>1.0616754935969699E-3</v>
-      </c>
-      <c r="AV9" s="10">
-        <f>BNVFE!K15</f>
-        <v>1.0713849719983116E-3</v>
-      </c>
-      <c r="AW9" s="10">
-        <f>BNVFE!L15</f>
-        <v>1.0757235789035442E-3</v>
-      </c>
-      <c r="AX9" s="10">
-        <f>BNVFE!M15</f>
-        <v>1.0782848570647235E-3</v>
-      </c>
-      <c r="AY9" s="10">
-        <f>BNVFE!N15</f>
-        <v>1.0775953324691067E-3</v>
-      </c>
-      <c r="AZ9" s="10">
-        <f>BNVFE!O15</f>
-        <v>1.0775074853975044E-3</v>
-      </c>
-      <c r="BA9" s="10">
-        <f>BNVFE!P15</f>
-        <v>1.0778988361191009E-3</v>
-      </c>
-      <c r="BB9" s="10">
-        <f>BNVFE!Q15</f>
-        <v>1.0785116841499065E-3</v>
-      </c>
-      <c r="BC9" s="10">
-        <f>BNVFE!R15</f>
-        <v>1.0790010102695979E-3</v>
-      </c>
-      <c r="BD9" s="10">
-        <f>BNVFE!S15</f>
-        <v>1.0794829267876918E-3</v>
-      </c>
-      <c r="BE9" s="10">
-        <f>BNVFE!T15</f>
-        <v>1.0802361129581342E-3</v>
-      </c>
-      <c r="BF9" s="10">
-        <f>BNVFE!U15</f>
-        <v>1.0809461286247785E-3</v>
-      </c>
-      <c r="BG9" s="10">
-        <f>BNVFE!V15</f>
-        <v>1.0815504168148291E-3</v>
-      </c>
-      <c r="BH9" s="10">
-        <f>BNVFE!W15</f>
-        <v>1.0821981538212447E-3</v>
-      </c>
-      <c r="BI9" s="10">
-        <f>BNVFE!X15</f>
-        <v>1.0826835903137368E-3</v>
-      </c>
-      <c r="BJ9" s="10">
-        <f>BNVFE!Y15</f>
-        <v>1.0831020687371974E-3</v>
-      </c>
-      <c r="BK9" s="10">
-        <f>BNVFE!Z15</f>
-        <v>1.0833807531687749E-3</v>
-      </c>
-      <c r="BL9" s="10">
-        <f>BNVFE!AA15</f>
-        <v>1.0836702401149649E-3</v>
-      </c>
-      <c r="BM9" s="10">
-        <f>BNVFE!AB15</f>
-        <v>1.0838966283997708E-3</v>
-      </c>
-      <c r="BN9" s="10">
-        <f>BNVFE!AC15</f>
-        <v>1.0843212452052544E-3</v>
-      </c>
-      <c r="BO9" s="10">
-        <f>BNVFE!AD15</f>
-        <v>1.0846030015461477E-3</v>
-      </c>
-      <c r="BP9" s="10">
-        <f>BNVFE!AE15</f>
-        <v>1.0848723112720957E-3</v>
-      </c>
-      <c r="BQ9" s="10">
-        <f>BNVFE!AF15</f>
-        <v>1.0850228718239992E-3</v>
-      </c>
-      <c r="BR9" s="10">
-        <f>BNVFE!AG15</f>
-        <v>1.0852777771687293E-3</v>
+        <f>SYFAFE!$B$5</f>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="G9" s="4">
+        <f>F9</f>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" ref="H9:BR9" si="7">G9</f>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="Z9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AA9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AB9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AC9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AD9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AE9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AF9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AG9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AH9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AI9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AK9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AL9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AM9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AN9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AO9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AP9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AQ9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AR9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AS9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AT9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AU9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AV9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AW9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AX9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AY9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AZ9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BA9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BB9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BC9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BD9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BE9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BF9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BG9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BH9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BI9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BJ9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BK9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BL9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BM9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BN9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BO9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BP9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BQ9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BR9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="BS9" s="10"/>
       <c r="BT9" s="4"/>
@@ -21476,139 +21479,139 @@
         <v>3.2890937975528366E-3</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" ref="G10:AN13" si="7">TREND($AO10:$BR10,$AO$1:$BR$1,G$1)</f>
+        <f t="shared" ref="G10:AN13" si="8">TREND($AO10:$BR10,$AO$1:$BR$1,G$1)</f>
         <v>3.2917330420467188E-3</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.294372286540601E-3</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2970115310344832E-3</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2996507755283645E-3</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3022900200222467E-3</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3049292645161289E-3</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3075685090100111E-3</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3102077535038933E-3</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3128469979977755E-3</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3154862424916577E-3</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.318125486985539E-3</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3207647314794212E-3</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3234039759733034E-3</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3260432204671856E-3</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3286824649610678E-3</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.33132170945495E-3</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3339609539488322E-3</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3366001984427144E-3</v>
       </c>
       <c r="Y10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3392394429365957E-3</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3418786874304779E-3</v>
       </c>
       <c r="AA10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3445179319243601E-3</v>
       </c>
       <c r="AB10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3471571764182423E-3</v>
       </c>
       <c r="AC10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3497964209121245E-3</v>
       </c>
       <c r="AD10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3524356654060067E-3</v>
       </c>
       <c r="AE10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3550749098998889E-3</v>
       </c>
       <c r="AF10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3577141543937711E-3</v>
       </c>
       <c r="AG10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3603533988876525E-3</v>
       </c>
       <c r="AH10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3629926433815347E-3</v>
       </c>
       <c r="AI10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3656318878754169E-3</v>
       </c>
       <c r="AJ10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3682711323692991E-3</v>
       </c>
       <c r="AK10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3709103768631813E-3</v>
       </c>
       <c r="AL10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3735496213570635E-3</v>
       </c>
       <c r="AM10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3761888658509456E-3</v>
       </c>
-      <c r="AN10" s="28">
-        <f t="shared" si="7"/>
+      <c r="AN10" s="26">
+        <f t="shared" si="8"/>
         <v>3.3788281103448278E-3</v>
       </c>
       <c r="AO10" s="10">
@@ -21750,135 +21753,135 @@
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="Y11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="Z11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AA11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AB11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AC11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AD11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AE11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AF11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AG11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AH11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AI11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AJ11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AK11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AL11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AM11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
-      <c r="AN11" s="28">
-        <f t="shared" si="7"/>
+      <c r="AN11" s="26">
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AO11" s="10">
@@ -22020,135 +22023,135 @@
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="V12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="Y12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="Z12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AA12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AB12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AC12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AD12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AE12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AF12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AG12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AH12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AI12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AJ12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AK12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AL12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AM12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
-      <c r="AN12" s="28">
-        <f t="shared" si="7"/>
+      <c r="AN12" s="26">
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AO12" s="10">
@@ -22306,71 +22309,71 @@
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AF13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AH13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AI13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AJ13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AK13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AL13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AM13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
-      <c r="AN13" s="28">
-        <f t="shared" si="7"/>
+      <c r="AN13" s="26">
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AO13" s="10">
@@ -22524,74 +22527,74 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14">
-        <f t="shared" ref="W14:AM14" si="8">$AO14</f>
+        <f t="shared" ref="W14:AM14" si="9">$AO14</f>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK14" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL14" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM14" s="20">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN14" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="28">
         <f>$AO14</f>
         <v>0</v>
       </c>
@@ -22718,10 +22721,10 @@
       <c r="BS14" s="11"/>
     </row>
     <row r="15" spans="1:72">
-      <c r="E15" s="24"/>
+      <c r="E15" s="22"/>
       <c r="X15" s="4"/>
       <c r="AH15" s="4"/>
-      <c r="AN15" s="27"/>
+      <c r="AN15" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22737,7 +22740,7 @@
   <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C88F877-632A-4501-95C7-36D5DD7F5DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACD76B7B-1DA4-4905-891B-37301943514E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="555" windowWidth="19605" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="9800" windowHeight="10070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1777,133 +1777,133 @@
                   <c:v>3.142498616321923E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.170827862483609E-4</c:v>
+                  <c:v>3.1934654476143933E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.199157108645295E-4</c:v>
+                  <c:v>3.2444322789068635E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.227486354806981E-4</c:v>
+                  <c:v>3.2953991101993338E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.255815600968667E-4</c:v>
+                  <c:v>3.346365941491804E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.284144847130353E-4</c:v>
+                  <c:v>3.3973327727842743E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.312474093292039E-4</c:v>
+                  <c:v>3.4482996040767445E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.3408033394537249E-4</c:v>
+                  <c:v>3.4992664353692148E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.3691325856154109E-4</c:v>
+                  <c:v>3.550233266661685E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.3974618317770969E-4</c:v>
+                  <c:v>3.6012000979541552E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.4257910779387829E-4</c:v>
+                  <c:v>3.6521669292466255E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.4541203241004689E-4</c:v>
+                  <c:v>3.7031337605390957E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.4824495702621549E-4</c:v>
+                  <c:v>3.754100591831566E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.5107788164238408E-4</c:v>
+                  <c:v>3.8050674231240362E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.5391080625855263E-4</c:v>
+                  <c:v>3.8560342544165043E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.6152338546126896E-4</c:v>
+                  <c:v>3.938977091004229E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.6806778318324615E-4</c:v>
+                  <c:v>4.0102815590911211E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.7326311577328699E-4</c:v>
+                  <c:v>4.0668872915977704E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.8684273091170592E-4</c:v>
+                  <c:v>4.2148439524556525E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.9133628030331842E-4</c:v>
+                  <c:v>4.2638034079782157E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.9460271712590122E-4</c:v>
+                  <c:v>4.2993928617474374E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.0654622240144441E-4</c:v>
+                  <c:v>4.4295232919176118E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.0753465089361259E-4</c:v>
+                  <c:v>4.4402927119422075E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.0771889354095417E-4</c:v>
+                  <c:v>4.4423001272194757E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.0791884576015625E-4</c:v>
+                  <c:v>4.4444787060954387E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.0852284515353123E-4</c:v>
+                  <c:v>4.4510595798899477E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.09583671112226E-4</c:v>
+                  <c:v>4.4626178063197816E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.1078673798239525E-4</c:v>
+                  <c:v>4.4757258182247277E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.122748024320864E-4</c:v>
+                  <c:v>4.4919390205042781E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.1373149805260076E-4</c:v>
+                  <c:v>4.5078104437884211E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.1495700440447459E-4</c:v>
+                  <c:v>4.5211629450069859E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.1601549646964788E-4</c:v>
+                  <c:v>4.5326957425061224E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.1779365223495714E-4</c:v>
+                  <c:v>4.5520696339484528E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.1809544457369974E-4</c:v>
+                  <c:v>4.5553578115777672E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.1838332983416382E-4</c:v>
+                  <c:v>4.5584944646724456E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.1848122624012197E-4</c:v>
+                  <c:v>4.559561094704881E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.1826563698301188E-4</c:v>
+                  <c:v>4.5572121425237108E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.1769414168042572E-4</c:v>
+                  <c:v>4.550985416964502E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.1714393092982577E-4</c:v>
+                  <c:v>4.5449905971852166E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.1708664938544884E-4</c:v>
+                  <c:v>4.5443664862698183E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.165029094218215E-4</c:v>
+                  <c:v>4.5380063490385911E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.1616572999280917E-4</c:v>
+                  <c:v>4.5343326114607497E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.1755377409260071E-4</c:v>
+                  <c:v>4.5494560422822621E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.1711981834238049E-4</c:v>
+                  <c:v>4.5447278785524218E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3236,136 +3236,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.5108389563240119E-5</c:v>
+                  <c:v>5.0412726378568952E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.7552820431472588E-5</c:v>
+                  <c:v>5.4271492176534604E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.9997251299705058E-5</c:v>
+                  <c:v>5.8130257974500256E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.2441682167937527E-5</c:v>
+                  <c:v>6.1989023772465041E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.4886113036169997E-5</c:v>
+                  <c:v>6.5847789570430693E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.7330543904402466E-5</c:v>
+                  <c:v>6.9706555368396345E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.9774974772634936E-5</c:v>
+                  <c:v>7.3565321166361129E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>9.2219405640867405E-5</c:v>
+                  <c:v>7.7424086964326781E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>9.4663836509099875E-5</c:v>
+                  <c:v>8.1282852762291566E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>9.7108267377332344E-5</c:v>
+                  <c:v>8.5141618560257218E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>9.9552698245564814E-5</c:v>
+                  <c:v>8.900038435822287E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.0199712911379728E-4</c:v>
+                  <c:v>9.2859150156187655E-5</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.0444155998202975E-4</c:v>
+                  <c:v>9.6717915954153307E-5</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.0688599085026222E-4</c:v>
+                  <c:v>1.0057668175211809E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.0748894488887501E-4</c:v>
+                  <c:v>1.0420515928406728E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.1376628742778099E-4</c:v>
+                  <c:v>1.0877081887028839E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.1487084665170681E-4</c:v>
+                  <c:v>1.119228749342E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.1675219072501874E-4</c:v>
+                  <c:v>1.1596328986495364E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.1821814758141852E-4</c:v>
+                  <c:v>1.1990275277656129E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.1769306557695523E-4</c:v>
+                  <c:v>1.2199635295884858E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.1740735707916262E-4</c:v>
+                  <c:v>1.243467097653028E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.1551151797500483E-4</c:v>
+                  <c:v>1.2468075205096364E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.1449785838376007E-4</c:v>
+                  <c:v>1.2577381385553893E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.13287341804607E-4</c:v>
+                  <c:v>1.2646319222836433E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.1212406398402511E-4</c:v>
+                  <c:v>1.2698406877407795E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.1076186329973974E-4</c:v>
+                  <c:v>1.2710494044541212E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.0947685788155618E-4</c:v>
+                  <c:v>1.2713124547346271E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.0833659526703707E-4</c:v>
+                  <c:v>1.2714496314152464E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.0725258337875167E-4</c:v>
+                  <c:v>1.2712313200368365E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.0627237374881068E-4</c:v>
+                  <c:v>1.271005238267318E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.053872190542009E-4</c:v>
+                  <c:v>1.2708001023750603E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.0457070988285631E-4</c:v>
+                  <c:v>1.2705407014004141E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.0382785746559407E-4</c:v>
+                  <c:v>1.2702629811717708E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.0317553743970813E-4</c:v>
+                  <c:v>1.2701194080551808E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.0260660677729319E-4</c:v>
+                  <c:v>1.2701796387221964E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.0212195692865432E-4</c:v>
+                  <c:v>1.2701802056749482E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.0164270384030296E-4</c:v>
+                  <c:v>1.270327910946451E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.0120623842325044E-4</c:v>
+                  <c:v>1.2702817221538397E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.0086620530512349E-4</c:v>
+                  <c:v>1.2698131801807758E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.0054219744424832E-4</c:v>
+                  <c:v>1.2695571200958938E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.9850684341711718E-5</c:v>
+                  <c:v>1.2640538596243631E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.9621972535475967E-5</c:v>
+                  <c:v>1.2643551327178303E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.9483752435656976E-5</c:v>
+                  <c:v>1.2650241733350927E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.9383928406132565E-5</c:v>
+                  <c:v>1.2663654108394285E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3699,91 +3699,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.177387347221569E-3</c:v>
+                  <c:v>1.1604234453908705E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.1740372877780075E-3</c:v>
+                  <c:v>1.1579662228857668E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.1706872283344459E-3</c:v>
+                  <c:v>1.1555090003806633E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.1673371688908844E-3</c:v>
+                  <c:v>1.1530517778755595E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.163987109447323E-3</c:v>
+                  <c:v>1.1505945553704558E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.1606370500037615E-3</c:v>
+                  <c:v>1.1481373328653521E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.1572869905602E-3</c:v>
+                  <c:v>1.1456801103602485E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.1539369311166386E-3</c:v>
+                  <c:v>1.1432228878551448E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.1505868716730771E-3</c:v>
+                  <c:v>1.1407656653500411E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.1472368122295155E-3</c:v>
+                  <c:v>1.1383084428449376E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.143886752785954E-3</c:v>
+                  <c:v>1.1358512203398338E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.1405366933423926E-3</c:v>
+                  <c:v>1.1333939978347303E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.1371866338988309E-3</c:v>
+                  <c:v>1.1309367753296266E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.1338365744552694E-3</c:v>
+                  <c:v>1.1284795528245229E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.130486515011708E-3</c:v>
+                  <c:v>1.1260223303194191E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.1271364555681463E-3</c:v>
+                  <c:v>1.1235651078143154E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.1237863961245848E-3</c:v>
+                  <c:v>1.1211078853092119E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.1204363366810234E-3</c:v>
+                  <c:v>1.1186506628041082E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>1.1137362177939013E-3</c:v>
@@ -3801,34 +3801,34 @@
                   <c:v>1.2984724640643824E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.3325458991476347E-3</c:v>
+                  <c:v>1.3325458991476349E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
                   <c:v>1.3625499159680566E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.3753174198569201E-3</c:v>
+                  <c:v>1.3753174198569197E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
                   <c:v>1.3946841343267524E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.4146533498165595E-3</c:v>
+                  <c:v>1.4146533498165597E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.4334182752321722E-3</c:v>
+                  <c:v>1.433418275232172E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
                   <c:v>1.4445909758303492E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.4455847020325701E-3</c:v>
+                  <c:v>1.4455847020325705E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.4457021763821076E-3</c:v>
+                  <c:v>1.4457021763821074E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.4456854451868699E-3</c:v>
+                  <c:v>1.4456854451868704E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
                   <c:v>1.4457034223221783E-3</c:v>
@@ -3840,22 +3840,22 @@
                   <c:v>1.4455629870770495E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.4452171497116701E-3</c:v>
+                  <c:v>1.4452171497116699E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.4450916657473916E-3</c:v>
+                  <c:v>1.4450916657473914E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
                   <c:v>1.4448529792281048E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.443856049179987E-3</c:v>
+                  <c:v>1.4438560491799872E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.4432142120520614E-3</c:v>
+                  <c:v>1.4432142120520612E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.443266541535037E-3</c:v>
+                  <c:v>1.4432665415350372E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
                   <c:v>1.4434251319069122E-3</c:v>
@@ -4240,148 +4240,148 @@
                   <c:v>7.8040477200267344E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.7819056047563108E-4</c:v>
+                  <c:v>7.7875573937035282E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.7597634894858872E-4</c:v>
+                  <c:v>7.771067067380322E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.7376213742154636E-4</c:v>
+                  <c:v>7.7545767410571158E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>7.71547925894504E-4</c:v>
+                  <c:v>7.7380864147339097E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.6933371436746164E-4</c:v>
+                  <c:v>7.7215960884107035E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.6711950284041929E-4</c:v>
+                  <c:v>7.7051057620874973E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.6490529131337693E-4</c:v>
+                  <c:v>7.6886154357642912E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>7.6269107978633457E-4</c:v>
+                  <c:v>7.672125109441085E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>7.6047686825929221E-4</c:v>
+                  <c:v>7.6556347831178788E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>7.5826265673224985E-4</c:v>
+                  <c:v>7.6391444567946727E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>7.5604844520520749E-4</c:v>
+                  <c:v>7.6226541304714665E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>7.5383423367816514E-4</c:v>
+                  <c:v>7.6061638041482603E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>7.5162002215112278E-4</c:v>
+                  <c:v>7.5896734778250542E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>7.4940581062408042E-4</c:v>
+                  <c:v>7.573183151501848E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>7.4719159909703806E-4</c:v>
+                  <c:v>7.5566928251786418E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>7.449773875699957E-4</c:v>
+                  <c:v>7.5402024988554357E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>7.4276317604295334E-4</c:v>
+                  <c:v>7.5237121725322295E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>7.4054896451591099E-4</c:v>
+                  <c:v>7.5072218462090233E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>7.3612054146182692E-4</c:v>
+                  <c:v>7.4742411935626142E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>7.8447318350072194E-4</c:v>
+                  <c:v>7.9651924557390657E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>8.0913266389472246E-4</c:v>
+                  <c:v>8.2155738726285784E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>8.3445529729440947E-4</c:v>
+                  <c:v>8.4726886507457174E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>8.582213975349269E-4</c:v>
+                  <c:v>8.7139990821531331E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>8.8074213007663328E-4</c:v>
+                  <c:v>8.9426646028002797E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>9.0057319308330108E-4</c:v>
+                  <c:v>9.1440204130079723E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>9.0901183566816969E-4</c:v>
+                  <c:v>9.2297026436659075E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>9.2181220627128113E-4</c:v>
+                  <c:v>9.3596719243283541E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>9.3501079807791388E-4</c:v>
+                  <c:v>9.4936845663098554E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>9.4741341804908898E-4</c:v>
+                  <c:v>9.6196152636282171E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>9.5479798028431191E-4</c:v>
+                  <c:v>9.6945948303515201E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>9.5545478057360543E-4</c:v>
+                  <c:v>9.7012636889170394E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>9.5553242488507497E-4</c:v>
+                  <c:v>9.7020520547872228E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>9.5552136645283517E-4</c:v>
+                  <c:v>9.7019397723754094E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>9.5553324838534815E-4</c:v>
+                  <c:v>9.7020604162434225E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>9.5550160244627959E-4</c:v>
+                  <c:v>9.7017390974266364E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>9.5544042814027313E-4</c:v>
+                  <c:v>9.7011179606804271E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>9.5521184799302321E-4</c:v>
+                  <c:v>9.6987970593383536E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>9.5512890975122625E-4</c:v>
+                  <c:v>9.6979549412497463E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>9.5497115062746795E-4</c:v>
+                  <c:v>9.6963531251407814E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>9.5431223276604333E-4</c:v>
+                  <c:v>9.6896627656878928E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>9.5388801248246955E-4</c:v>
+                  <c:v>9.6853554212517003E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>9.5392259949394229E-4</c:v>
+                  <c:v>9.6857066024120565E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>9.5402741931442593E-4</c:v>
+                  <c:v>9.6867708963368051E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>9.5426270510675759E-4</c:v>
+                  <c:v>9.6891598838222154E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.5454316577121671E-4</c:v>
+                  <c:v>9.6920075569048212E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.5490315303348411E-4</c:v>
+                  <c:v>9.6956627077574963E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.5518761355641295E-4</c:v>
+                  <c:v>9.6985509936273564E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.555246604539279E-4</c:v>
+                  <c:v>9.701973218200204E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7795,10 +7795,10 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.40625" customWidth="1"/>
+    <col min="2" max="2" width="107.40625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7809,7 +7809,7 @@
         <v>99</v>
       </c>
       <c r="C1" s="31">
-        <v>45321</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8032,12 +8032,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9031,12 +9031,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9908,12 +9908,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -10785,14 +10785,14 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="2" max="2" width="10.40625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30">
+    <row r="1" spans="1:32">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -11691,12 +11691,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -12568,12 +12568,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -13559,12 +13559,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -14436,12 +14436,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -15435,12 +15435,12 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30">
+    <row r="1" spans="1:31">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -16210,14 +16210,14 @@
   <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.40625" customWidth="1"/>
+    <col min="2" max="2" width="16.40625" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -16391,94 +16391,94 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>4.1601549646964788E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>4.1779365223495714E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>4.1809544457369974E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>4.1838332983416382E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>4.1848122624012197E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.1826563698301188E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>4.1769414168042572E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.1714393092982577E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.1708664938544884E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>4.165029094218215E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.1616572999280917E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>4.1755377409260071E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.1711981834238049E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -16496,94 +16496,94 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>1.0748894488887501E-4</v>
+        <v>1.0420515928406728E-4</v>
       </c>
       <c r="E9" s="4">
-        <v>1.1376628742778099E-4</v>
+        <v>1.0877081887028839E-4</v>
       </c>
       <c r="F9" s="4">
-        <v>1.1487084665170681E-4</v>
+        <v>1.119228749342E-4</v>
       </c>
       <c r="G9" s="4">
-        <v>1.1675219072501874E-4</v>
+        <v>1.1596328986495364E-4</v>
       </c>
       <c r="H9" s="4">
-        <v>1.1821814758141852E-4</v>
+        <v>1.1990275277656129E-4</v>
       </c>
       <c r="I9" s="4">
-        <v>1.1769306557695523E-4</v>
+        <v>1.2199635295884858E-4</v>
       </c>
       <c r="J9" s="4">
-        <v>1.1740735707916262E-4</v>
+        <v>1.243467097653028E-4</v>
       </c>
       <c r="K9" s="4">
-        <v>1.1551151797500483E-4</v>
+        <v>1.2468075205096364E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>1.1449785838376007E-4</v>
+        <v>1.2577381385553893E-4</v>
       </c>
       <c r="M9" s="4">
-        <v>1.13287341804607E-4</v>
+        <v>1.2646319222836433E-4</v>
       </c>
       <c r="N9" s="4">
-        <v>1.1212406398402511E-4</v>
+        <v>1.2698406877407795E-4</v>
       </c>
       <c r="O9" s="4">
-        <v>1.1076186329973974E-4</v>
+        <v>1.2710494044541212E-4</v>
       </c>
       <c r="P9" s="4">
-        <v>1.0947685788155618E-4</v>
+        <v>1.2713124547346271E-4</v>
       </c>
       <c r="Q9" s="4">
-        <v>1.0833659526703707E-4</v>
+        <v>1.2714496314152464E-4</v>
       </c>
       <c r="R9" s="4">
-        <v>1.0725258337875167E-4</v>
+        <v>1.2712313200368365E-4</v>
       </c>
       <c r="S9" s="4">
-        <v>1.0627237374881068E-4</v>
+        <v>1.271005238267318E-4</v>
       </c>
       <c r="T9" s="4">
-        <v>1.053872190542009E-4</v>
+        <v>1.2708001023750603E-4</v>
       </c>
       <c r="U9" s="4">
-        <v>1.0457070988285631E-4</v>
+        <v>1.2705407014004141E-4</v>
       </c>
       <c r="V9" s="4">
-        <v>1.0382785746559407E-4</v>
+        <v>1.2702629811717708E-4</v>
       </c>
       <c r="W9" s="4">
-        <v>1.0317553743970813E-4</v>
+        <v>1.2701194080551808E-4</v>
       </c>
       <c r="X9" s="4">
-        <v>1.0260660677729319E-4</v>
+        <v>1.2701796387221964E-4</v>
       </c>
       <c r="Y9" s="4">
-        <v>1.0212195692865432E-4</v>
+        <v>1.2701802056749482E-4</v>
       </c>
       <c r="Z9" s="4">
-        <v>1.0164270384030296E-4</v>
+        <v>1.270327910946451E-4</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.0120623842325044E-4</v>
+        <v>1.2702817221538397E-4</v>
       </c>
       <c r="AB9" s="4">
-        <v>1.0086620530512349E-4</v>
+        <v>1.2698131801807758E-4</v>
       </c>
       <c r="AC9" s="4">
-        <v>1.0054219744424832E-4</v>
+        <v>1.2695571200958938E-4</v>
       </c>
       <c r="AD9" s="4">
-        <v>9.9850684341711718E-5</v>
+        <v>1.2640538596243631E-4</v>
       </c>
       <c r="AE9" s="4">
-        <v>9.9621972535475967E-5</v>
+        <v>1.2643551327178303E-4</v>
       </c>
       <c r="AF9" s="4">
-        <v>9.9483752435656976E-5</v>
+        <v>1.2650241733350927E-4</v>
       </c>
       <c r="AG9" s="4">
-        <v>9.9383928406132565E-5</v>
+        <v>1.2663654108394285E-4</v>
       </c>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
@@ -16616,34 +16616,34 @@
         <v>1.2984724640643824E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>1.3325458991476347E-3</v>
+        <v>1.3325458991476349E-3</v>
       </c>
       <c r="J10" s="4">
         <v>1.3625499159680566E-3</v>
       </c>
       <c r="K10" s="4">
-        <v>1.3753174198569201E-3</v>
+        <v>1.3753174198569197E-3</v>
       </c>
       <c r="L10" s="4">
         <v>1.3946841343267524E-3</v>
       </c>
       <c r="M10" s="4">
-        <v>1.4146533498165595E-3</v>
+        <v>1.4146533498165597E-3</v>
       </c>
       <c r="N10" s="4">
-        <v>1.4334182752321722E-3</v>
+        <v>1.433418275232172E-3</v>
       </c>
       <c r="O10" s="4">
         <v>1.4445909758303492E-3</v>
       </c>
       <c r="P10" s="4">
-        <v>1.4455847020325701E-3</v>
+        <v>1.4455847020325705E-3</v>
       </c>
       <c r="Q10" s="4">
-        <v>1.4457021763821076E-3</v>
+        <v>1.4457021763821074E-3</v>
       </c>
       <c r="R10" s="4">
-        <v>1.4456854451868699E-3</v>
+        <v>1.4456854451868704E-3</v>
       </c>
       <c r="S10" s="4">
         <v>1.4457034223221783E-3</v>
@@ -16655,22 +16655,22 @@
         <v>1.4455629870770495E-3</v>
       </c>
       <c r="V10" s="4">
-        <v>1.4452171497116701E-3</v>
+        <v>1.4452171497116699E-3</v>
       </c>
       <c r="W10" s="4">
-        <v>1.4450916657473916E-3</v>
+        <v>1.4450916657473914E-3</v>
       </c>
       <c r="X10" s="4">
         <v>1.4448529792281048E-3</v>
       </c>
       <c r="Y10" s="4">
-        <v>1.443856049179987E-3</v>
+        <v>1.4438560491799872E-3</v>
       </c>
       <c r="Z10" s="4">
-        <v>1.4432142120520614E-3</v>
+        <v>1.4432142120520612E-3</v>
       </c>
       <c r="AA10" s="4">
-        <v>1.443266541535037E-3</v>
+        <v>1.4432665415350372E-3</v>
       </c>
       <c r="AB10" s="4">
         <v>1.4434251319069122E-3</v>
@@ -16706,94 +16706,94 @@
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>7.3612054146182692E-4</v>
+        <v>7.4742411935626142E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>7.8447318350072194E-4</v>
+        <v>7.9651924557390657E-4</v>
       </c>
       <c r="F11" s="4">
-        <v>8.0913266389472246E-4</v>
+        <v>8.2155738726285784E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>8.3445529729440947E-4</v>
+        <v>8.4726886507457174E-4</v>
       </c>
       <c r="H11" s="4">
-        <v>8.582213975349269E-4</v>
+        <v>8.7139990821531331E-4</v>
       </c>
       <c r="I11" s="4">
-        <v>8.8074213007663328E-4</v>
+        <v>8.9426646028002797E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>9.0057319308330108E-4</v>
+        <v>9.1440204130079723E-4</v>
       </c>
       <c r="K11" s="4">
-        <v>9.0901183566816969E-4</v>
+        <v>9.2297026436659075E-4</v>
       </c>
       <c r="L11" s="4">
-        <v>9.2181220627128113E-4</v>
+        <v>9.3596719243283541E-4</v>
       </c>
       <c r="M11" s="4">
-        <v>9.3501079807791388E-4</v>
+        <v>9.4936845663098554E-4</v>
       </c>
       <c r="N11" s="4">
-        <v>9.4741341804908898E-4</v>
+        <v>9.6196152636282171E-4</v>
       </c>
       <c r="O11" s="4">
-        <v>9.5479798028431191E-4</v>
+        <v>9.6945948303515201E-4</v>
       </c>
       <c r="P11" s="4">
-        <v>9.5545478057360543E-4</v>
+        <v>9.7012636889170394E-4</v>
       </c>
       <c r="Q11" s="4">
-        <v>9.5553242488507497E-4</v>
+        <v>9.7020520547872228E-4</v>
       </c>
       <c r="R11" s="4">
-        <v>9.5552136645283517E-4</v>
+        <v>9.7019397723754094E-4</v>
       </c>
       <c r="S11" s="4">
-        <v>9.5553324838534815E-4</v>
+        <v>9.7020604162434225E-4</v>
       </c>
       <c r="T11" s="4">
-        <v>9.5550160244627959E-4</v>
+        <v>9.7017390974266364E-4</v>
       </c>
       <c r="U11" s="4">
-        <v>9.5544042814027313E-4</v>
+        <v>9.7011179606804271E-4</v>
       </c>
       <c r="V11" s="4">
-        <v>9.5521184799302321E-4</v>
+        <v>9.6987970593383536E-4</v>
       </c>
       <c r="W11" s="4">
-        <v>9.5512890975122625E-4</v>
+        <v>9.6979549412497463E-4</v>
       </c>
       <c r="X11" s="4">
-        <v>9.5497115062746795E-4</v>
+        <v>9.6963531251407814E-4</v>
       </c>
       <c r="Y11" s="4">
-        <v>9.5431223276604333E-4</v>
+        <v>9.6896627656878928E-4</v>
       </c>
       <c r="Z11" s="4">
-        <v>9.5388801248246955E-4</v>
+        <v>9.6853554212517003E-4</v>
       </c>
       <c r="AA11" s="4">
-        <v>9.5392259949394229E-4</v>
+        <v>9.6857066024120565E-4</v>
       </c>
       <c r="AB11" s="4">
-        <v>9.5402741931442593E-4</v>
+        <v>9.6867708963368051E-4</v>
       </c>
       <c r="AC11" s="4">
-        <v>9.5426270510675759E-4</v>
+        <v>9.6891598838222154E-4</v>
       </c>
       <c r="AD11" s="4">
-        <v>9.5454316577121671E-4</v>
+        <v>9.6920075569048212E-4</v>
       </c>
       <c r="AE11" s="4">
-        <v>9.5490315303348411E-4</v>
+        <v>9.6956627077574963E-4</v>
       </c>
       <c r="AF11" s="4">
-        <v>9.5518761355641295E-4</v>
+        <v>9.6985509936273564E-4</v>
       </c>
       <c r="AG11" s="4">
-        <v>9.555246604539279E-4</v>
+        <v>9.701973218200204E-4</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -17846,94 +17846,94 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>1.0610370953958444E-3</v>
+        <v>1.1058184387710214E-3</v>
       </c>
       <c r="C24">
-        <v>1.1182929641066262E-3</v>
+        <v>1.1654653618777037E-3</v>
       </c>
       <c r="D24">
-        <v>1.1230378075595187E-3</v>
+        <v>1.1704178038241025E-3</v>
       </c>
       <c r="E24">
-        <v>1.1207737467721995E-3</v>
+        <v>1.1680699023993095E-3</v>
       </c>
       <c r="F24">
-        <v>1.1241462933302886E-3</v>
+        <v>1.1715925157363262E-3</v>
       </c>
       <c r="G24">
-        <v>1.1243227034620279E-3</v>
+        <v>1.1717836975623729E-3</v>
       </c>
       <c r="H24">
-        <v>1.1197764855285623E-3</v>
+        <v>1.1670454732039669E-3</v>
       </c>
       <c r="I24">
-        <v>1.1191149559385343E-3</v>
+        <v>1.1663553647253712E-3</v>
       </c>
       <c r="J24">
-        <v>1.1130469624480827E-3</v>
+        <v>1.1600295837550369E-3</v>
       </c>
       <c r="K24">
-        <v>1.1088287076252618E-3</v>
+        <v>1.1556233631186427E-3</v>
       </c>
       <c r="L24">
-        <v>1.1076057889551705E-3</v>
+        <v>1.1543479301738477E-3</v>
       </c>
       <c r="M24">
-        <v>1.1071053032327867E-3</v>
+        <v>1.1538248111999468E-3</v>
       </c>
       <c r="N24">
-        <v>1.1067724143381994E-3</v>
+        <v>1.1534771013398996E-3</v>
       </c>
       <c r="O24">
-        <v>1.1066615139372906E-3</v>
+        <v>1.153358383316175E-3</v>
       </c>
       <c r="P24">
-        <v>1.1066769292084788E-3</v>
+        <v>1.1533777970732827E-3</v>
       </c>
       <c r="Q24">
-        <v>1.1066795967218581E-3</v>
+        <v>1.1533839998503657E-3</v>
       </c>
       <c r="R24">
-        <v>1.1064406824033406E-3</v>
+        <v>1.1531365054505626E-3</v>
       </c>
       <c r="S24">
-        <v>1.10616658964172E-3</v>
+        <v>1.1528517648706005E-3</v>
       </c>
       <c r="T24">
-        <v>1.1060290826740075E-3</v>
+        <v>1.1527114348871379E-3</v>
       </c>
       <c r="U24">
-        <v>1.1055011555537056E-3</v>
+        <v>1.1521628742468084E-3</v>
       </c>
       <c r="V24">
-        <v>1.1050415873555949E-3</v>
+        <v>1.1516853990217147E-3</v>
       </c>
       <c r="W24">
-        <v>1.1045586465345543E-3</v>
+        <v>1.1511845126241146E-3</v>
       </c>
       <c r="X24">
-        <v>1.1038843213708662E-3</v>
+        <v>1.1504833870552749E-3</v>
       </c>
       <c r="Y24">
-        <v>1.1032661366839319E-3</v>
+        <v>1.1498404422001507E-3</v>
       </c>
       <c r="Z24">
-        <v>1.1026899310228654E-3</v>
+        <v>1.1492400691721339E-3</v>
       </c>
       <c r="AA24">
-        <v>1.1033241851303997E-3</v>
+        <v>1.1499032994117962E-3</v>
       </c>
       <c r="AB24">
-        <v>1.1025809057094401E-3</v>
+        <v>1.1491304009395679E-3</v>
       </c>
       <c r="AC24">
-        <v>1.1023701654874632E-3</v>
+        <v>1.148913547482614E-3</v>
       </c>
       <c r="AD24">
-        <v>1.1025099635140992E-3</v>
+        <v>1.1490606826052038E-3</v>
       </c>
       <c r="AE24">
-        <v>1.1022449653531074E-3</v>
+        <v>1.1487858957225897E-3</v>
       </c>
     </row>
     <row r="25" spans="1:37">
@@ -17941,94 +17941,94 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>3.9757641638912632E-4</v>
+        <v>4.1435623124899391E-4</v>
       </c>
       <c r="C25">
-        <v>3.9900747239960505E-4</v>
+        <v>4.1583860682125711E-4</v>
       </c>
       <c r="D25">
-        <v>4.094728037527083E-4</v>
+        <v>4.2674810809389702E-4</v>
       </c>
       <c r="E25">
-        <v>4.1042134222259559E-4</v>
+        <v>4.2774094105362768E-4</v>
       </c>
       <c r="F25">
-        <v>4.2303467685595353E-4</v>
+        <v>4.4088946807188358E-4</v>
       </c>
       <c r="G25">
-        <v>4.2712563186039055E-4</v>
+        <v>4.4515587089355332E-4</v>
       </c>
       <c r="H25">
-        <v>4.2901230740863917E-4</v>
+        <v>4.4712215141194824E-4</v>
       </c>
       <c r="I25">
-        <v>4.4013468861937947E-4</v>
+        <v>4.5871378319881849E-4</v>
       </c>
       <c r="J25">
-        <v>4.4145313646605977E-4</v>
+        <v>4.60087233889707E-4</v>
       </c>
       <c r="K25">
-        <v>4.4134933786440692E-4</v>
+        <v>4.5997510943360454E-4</v>
       </c>
       <c r="L25">
-        <v>4.4091962109341271E-4</v>
+        <v>4.5952689761791997E-4</v>
       </c>
       <c r="M25">
-        <v>4.4021823423990848E-4</v>
+        <v>4.5879531018905696E-4</v>
       </c>
       <c r="N25">
-        <v>4.4027827540505136E-4</v>
+        <v>4.5885757750912214E-4</v>
       </c>
       <c r="O25">
-        <v>4.4040955993276986E-4</v>
+        <v>4.5899315341134275E-4</v>
       </c>
       <c r="P25">
-        <v>4.4116372836744042E-4</v>
+        <v>4.5978047950904734E-4</v>
       </c>
       <c r="Q25">
-        <v>4.4149861084351322E-4</v>
+        <v>4.6013085920391559E-4</v>
       </c>
       <c r="R25">
-        <v>4.4225600784943527E-4</v>
+        <v>4.6092082071518263E-4</v>
       </c>
       <c r="S25">
-        <v>4.4285604557792939E-4</v>
+        <v>4.615465505005841E-4</v>
       </c>
       <c r="T25">
-        <v>4.4414588143789507E-4</v>
+        <v>4.6289202003053275E-4</v>
       </c>
       <c r="U25">
-        <v>4.4411604405746724E-4</v>
+        <v>4.6286158567069468E-4</v>
       </c>
       <c r="V25">
-        <v>4.4420971921594975E-4</v>
+        <v>4.6295981398202245E-4</v>
       </c>
       <c r="W25">
-        <v>4.4397500702864155E-4</v>
+        <v>4.6271617508682986E-4</v>
       </c>
       <c r="X25">
-        <v>4.4370861117360116E-4</v>
+        <v>4.6243920306310218E-4</v>
       </c>
       <c r="Y25">
-        <v>4.424879140459794E-4</v>
+        <v>4.6116751148015295E-4</v>
       </c>
       <c r="Z25">
-        <v>4.4177355237873966E-4</v>
+        <v>4.6042305602918797E-4</v>
       </c>
       <c r="AA25">
-        <v>4.4054153352135982E-4</v>
+        <v>4.591399062500133E-4</v>
       </c>
       <c r="AB25">
-        <v>4.3982519474178468E-4</v>
+        <v>4.5839402783031833E-4</v>
       </c>
       <c r="AC25">
-        <v>4.3880580213641828E-4</v>
+        <v>4.573327059931574E-4</v>
       </c>
       <c r="AD25">
-        <v>4.4035893908705087E-4</v>
+        <v>4.5895199125989522E-4</v>
       </c>
       <c r="AE25">
-        <v>4.3940968502460365E-4</v>
+        <v>4.579632154985259E-4</v>
       </c>
     </row>
     <row r="26" spans="1:37">
@@ -18036,94 +18036,94 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>3.4525981498377545E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="C26">
-        <v>3.5982944807231638E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="D26">
-        <v>3.6710644959195353E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="E26">
-        <v>3.7373493890990666E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="F26">
-        <v>3.9582578415611009E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="G26">
-        <v>4.3494713071778808E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="H26">
-        <v>4.4227847691112512E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="I26">
-        <v>4.5901794912486538E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="J26">
-        <v>4.6412939868974872E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="K26">
-        <v>4.6774364798041294E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="L26">
-        <v>4.6966309910348734E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="M26">
-        <v>4.7260846794834008E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="N26">
-        <v>4.7526441798452414E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="O26">
-        <v>4.7788153153438258E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="P26">
-        <v>4.8072409114320114E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="Q26">
-        <v>4.8317943716800202E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="R26">
-        <v>4.8470967915637789E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="S26">
-        <v>4.8594611468298545E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="T26">
-        <v>4.8792763254902827E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="U26">
-        <v>4.8771717870415681E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="V26">
-        <v>4.8811136392356582E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="W26">
-        <v>4.8843918429084768E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="X26">
-        <v>4.8810682276656785E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="Y26">
-        <v>4.8747689393500613E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="Z26">
-        <v>4.8672999513277174E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="AA26">
-        <v>4.8843454079791745E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="AB26">
-        <v>4.8748772875184347E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="AC26">
-        <v>4.8711906355556337E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="AD26">
-        <v>4.8876138897384217E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="AE26">
-        <v>4.8839502633604009E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
     </row>
     <row r="27" spans="1:37">
@@ -18131,94 +18131,94 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>3.8826950759574409E-4</v>
+        <v>4.0465652197743196E-4</v>
       </c>
       <c r="C27">
-        <v>3.989339915927411E-4</v>
+        <v>4.1576202640994142E-4</v>
       </c>
       <c r="D27">
-        <v>4.0175941665032688E-4</v>
+        <v>4.1870929984394776E-4</v>
       </c>
       <c r="E27">
-        <v>4.046076403132251E-4</v>
+        <v>4.2168190349906829E-4</v>
       </c>
       <c r="F27">
-        <v>4.1514273478187707E-4</v>
+        <v>4.3266443515270633E-4</v>
       </c>
       <c r="G27">
-        <v>4.1963901427461011E-4</v>
+        <v>4.3735322098718013E-4</v>
       </c>
       <c r="H27">
-        <v>4.2143164929997338E-4</v>
+        <v>4.3922149191073594E-4</v>
       </c>
       <c r="I27">
-        <v>4.2796953665692094E-4</v>
+        <v>4.4603511227335165E-4</v>
       </c>
       <c r="J27">
-        <v>4.2869137838688967E-4</v>
+        <v>4.4678679157952655E-4</v>
       </c>
       <c r="K27">
-        <v>4.2889294118354267E-4</v>
+        <v>4.4699302940114473E-4</v>
       </c>
       <c r="L27">
-        <v>4.2958514978309507E-4</v>
+        <v>4.4771409957447328E-4</v>
       </c>
       <c r="M27">
-        <v>4.3016225956684587E-4</v>
+        <v>4.4831497643516992E-4</v>
       </c>
       <c r="N27">
-        <v>4.314632453320266E-4</v>
+        <v>4.496705619988588E-4</v>
       </c>
       <c r="O27">
-        <v>4.3270248083989658E-4</v>
+        <v>4.5096086515454705E-4</v>
       </c>
       <c r="P27">
-        <v>4.3430279078009501E-4</v>
+        <v>4.5263001592613935E-4</v>
       </c>
       <c r="Q27">
-        <v>4.3530324098676928E-4</v>
+        <v>4.5367403060863823E-4</v>
       </c>
       <c r="R27">
-        <v>4.3666804491927715E-4</v>
+        <v>4.5509702541521833E-4</v>
       </c>
       <c r="S27">
-        <v>4.3784695384923824E-4</v>
+        <v>4.5632605270766956E-4</v>
       </c>
       <c r="T27">
-        <v>4.3919387063071915E-4</v>
+        <v>4.5773099888512522E-4</v>
       </c>
       <c r="U27">
-        <v>4.3965998782187011E-4</v>
+        <v>4.5821744528746784E-4</v>
       </c>
       <c r="V27">
-        <v>4.4023054662472997E-4</v>
+        <v>4.5881268049317148E-4</v>
       </c>
       <c r="W27">
-        <v>4.4040065556194612E-4</v>
+        <v>4.5899094233070158E-4</v>
       </c>
       <c r="X27">
-        <v>4.4071018775672388E-4</v>
+        <v>4.5931420503415025E-4</v>
       </c>
       <c r="Y27">
-        <v>4.4012557028617579E-4</v>
+        <v>4.5870544153793057E-4</v>
       </c>
       <c r="Z27">
-        <v>4.3984103857540357E-4</v>
+        <v>4.584089610106891E-4</v>
       </c>
       <c r="AA27">
-        <v>4.3927502996579274E-4</v>
+        <v>4.5781993462527175E-4</v>
       </c>
       <c r="AB27">
-        <v>4.3896293494925283E-4</v>
+        <v>4.5749536457941731E-4</v>
       </c>
       <c r="AC27">
-        <v>4.3836887632577525E-4</v>
+        <v>4.5687733265413878E-4</v>
       </c>
       <c r="AD27">
-        <v>4.3967475364455565E-4</v>
+        <v>4.5823891780242144E-4</v>
       </c>
       <c r="AE27">
-        <v>4.3902895392029714E-4</v>
+        <v>4.5756640849424067E-4</v>
       </c>
     </row>
     <row r="28" spans="1:37">
@@ -18226,94 +18226,94 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>6.2864085446168573E-4</v>
+        <v>6.5517280333083554E-4</v>
       </c>
       <c r="C28">
-        <v>5.8065173143116884E-4</v>
+        <v>6.0514507559113824E-4</v>
       </c>
       <c r="D28">
-        <v>5.7715727565658991E-4</v>
+        <v>6.0150704320725845E-4</v>
       </c>
       <c r="E28">
-        <v>5.8939802003144003E-4</v>
+        <v>6.1427035538190694E-4</v>
       </c>
       <c r="F28">
-        <v>6.1132283966645277E-4</v>
+        <v>6.3712460549070139E-4</v>
       </c>
       <c r="G28">
-        <v>6.2116495269514782E-4</v>
+        <v>6.4738616664415639E-4</v>
       </c>
       <c r="H28">
-        <v>6.2859863293007745E-4</v>
+        <v>6.5513359005477795E-4</v>
       </c>
       <c r="I28">
-        <v>6.4471041145104213E-4</v>
+        <v>6.7192511645025751E-4</v>
       </c>
       <c r="J28">
-        <v>6.4840312593372079E-4</v>
+        <v>6.7577275142821603E-4</v>
       </c>
       <c r="K28">
-        <v>6.5182617183108646E-4</v>
+        <v>6.7933446138261709E-4</v>
       </c>
       <c r="L28">
-        <v>6.5274851137244263E-4</v>
+        <v>6.8029519215282537E-4</v>
       </c>
       <c r="M28">
-        <v>6.5479808482626608E-4</v>
+        <v>6.8243036537951835E-4</v>
       </c>
       <c r="N28">
-        <v>6.5728685533569657E-4</v>
+        <v>6.8502370209035806E-4</v>
       </c>
       <c r="O28">
-        <v>6.599953694386326E-4</v>
+        <v>6.8784464147818671E-4</v>
       </c>
       <c r="P28">
-        <v>6.6271823685959863E-4</v>
+        <v>6.9068440837210285E-4</v>
       </c>
       <c r="Q28">
-        <v>6.6541147575940635E-4</v>
+        <v>6.9349335772620044E-4</v>
       </c>
       <c r="R28">
-        <v>6.6758238321629323E-4</v>
+        <v>6.9575678906731286E-4</v>
       </c>
       <c r="S28">
-        <v>6.695223998790733E-4</v>
+        <v>6.9777923827096409E-4</v>
       </c>
       <c r="T28">
-        <v>6.7209439570581602E-4</v>
+        <v>7.0046159489822399E-4</v>
       </c>
       <c r="U28">
-        <v>6.7286737744009942E-4</v>
+        <v>7.0126820554068138E-4</v>
       </c>
       <c r="V28">
-        <v>6.7344823507195376E-4</v>
+        <v>7.0187448889172854E-4</v>
       </c>
       <c r="W28">
-        <v>6.73909086850441E-4</v>
+        <v>7.0235628151829209E-4</v>
       </c>
       <c r="X28">
-        <v>6.740064696202369E-4</v>
+        <v>7.0245879124624332E-4</v>
       </c>
       <c r="Y28">
-        <v>6.7364356730673243E-4</v>
+        <v>7.0208138504586923E-4</v>
       </c>
       <c r="Z28">
-        <v>6.7322262507433497E-4</v>
+        <v>7.0164276868927991E-4</v>
       </c>
       <c r="AA28">
-        <v>6.7344500418278937E-4</v>
+        <v>7.0187587901977887E-4</v>
       </c>
       <c r="AB28">
-        <v>6.7281217685356582E-4</v>
+        <v>7.0121740957167211E-4</v>
       </c>
       <c r="AC28">
-        <v>6.7245517568083519E-4</v>
+        <v>7.0084703451029598E-4</v>
       </c>
       <c r="AD28">
-        <v>6.7397575425436052E-4</v>
+        <v>7.0243269074363234E-4</v>
       </c>
       <c r="AE28">
-        <v>6.7349435170381685E-4</v>
+        <v>7.0193181770471214E-4</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -18321,94 +18321,94 @@
         <v>84</v>
       </c>
       <c r="B29">
-        <v>3.4585801076062443E-4</v>
+        <v>3.6045503701553509E-4</v>
       </c>
       <c r="C29">
-        <v>3.4495574783075341E-4</v>
+        <v>3.5950684514816466E-4</v>
       </c>
       <c r="D29">
-        <v>3.6039991749266362E-4</v>
+        <v>3.7560487909735457E-4</v>
       </c>
       <c r="E29">
-        <v>3.6434083049787565E-4</v>
+        <v>3.7971585214712964E-4</v>
       </c>
       <c r="F29">
-        <v>3.7594665871961683E-4</v>
+        <v>3.9181403193273731E-4</v>
       </c>
       <c r="G29">
-        <v>3.8265282942463545E-4</v>
+        <v>3.9880573963794092E-4</v>
       </c>
       <c r="H29">
-        <v>3.8491153807264589E-4</v>
+        <v>4.0115976169978224E-4</v>
       </c>
       <c r="I29">
-        <v>3.948653271158722E-4</v>
+        <v>4.1153349812879397E-4</v>
       </c>
       <c r="J29">
-        <v>3.9594612256427204E-4</v>
+        <v>4.1265933176568687E-4</v>
       </c>
       <c r="K29">
-        <v>3.9619175896624695E-4</v>
+        <v>4.129117958327599E-4</v>
       </c>
       <c r="L29">
-        <v>3.9654376773871745E-4</v>
+        <v>4.1327833609856163E-4</v>
       </c>
       <c r="M29">
-        <v>3.9707573055230652E-4</v>
+        <v>4.1383220593268312E-4</v>
       </c>
       <c r="N29">
-        <v>3.9834863581642401E-4</v>
+        <v>4.1515854913946708E-4</v>
       </c>
       <c r="O29">
-        <v>3.9959695124185265E-4</v>
+        <v>4.1645840924083266E-4</v>
       </c>
       <c r="P29">
-        <v>4.0092020917552979E-4</v>
+        <v>4.1783871648228943E-4</v>
       </c>
       <c r="Q29">
-        <v>4.0164593001903277E-4</v>
+        <v>4.185963043514945E-4</v>
       </c>
       <c r="R29">
-        <v>4.025864972614837E-4</v>
+        <v>4.1957711242621983E-4</v>
       </c>
       <c r="S29">
-        <v>4.0337312378417004E-4</v>
+        <v>4.2039727289771742E-4</v>
       </c>
       <c r="T29">
-        <v>4.0442495213179318E-4</v>
+        <v>4.2149458289914189E-4</v>
       </c>
       <c r="U29">
-        <v>4.0454932437130627E-4</v>
+        <v>4.2162480789881447E-4</v>
       </c>
       <c r="V29">
-        <v>4.0464803339247029E-4</v>
+        <v>4.2172822917568159E-4</v>
       </c>
       <c r="W29">
-        <v>4.0439328301694171E-4</v>
+        <v>4.2146361886612633E-4</v>
       </c>
       <c r="X29">
-        <v>4.040545754555679E-4</v>
+        <v>4.2111122291148745E-4</v>
       </c>
       <c r="Y29">
-        <v>4.0293590438237893E-4</v>
+        <v>4.1994581639741166E-4</v>
       </c>
       <c r="Z29">
-        <v>4.0211529090881346E-4</v>
+        <v>4.190906180766014E-4</v>
       </c>
       <c r="AA29">
-        <v>4.0078697353040108E-4</v>
+        <v>4.1770702521979762E-4</v>
       </c>
       <c r="AB29">
-        <v>4.0014215791000135E-4</v>
+        <v>4.170356261122462E-4</v>
       </c>
       <c r="AC29">
-        <v>3.9916649340924858E-4</v>
+        <v>4.1601977841646405E-4</v>
       </c>
       <c r="AD29">
-        <v>3.9985648048380197E-4</v>
+        <v>4.1673941788640924E-4</v>
       </c>
       <c r="AE29">
-        <v>3.9882869849444967E-4</v>
+        <v>4.1566874700402494E-4</v>
       </c>
     </row>
     <row r="30" spans="1:37">
@@ -18416,94 +18416,94 @@
         <v>85</v>
       </c>
       <c r="B30">
-        <v>5.5949994465194052E-4</v>
+        <v>5.8311378364830837E-4</v>
       </c>
       <c r="C30">
-        <v>5.490709016341414E-4</v>
+        <v>5.7223208730528745E-4</v>
       </c>
       <c r="D30">
-        <v>5.4591562691943185E-4</v>
+        <v>5.6894733626181731E-4</v>
       </c>
       <c r="E30">
-        <v>5.4428202142592678E-4</v>
+        <v>5.6725048162098066E-4</v>
       </c>
       <c r="F30">
-        <v>5.4687829275625965E-4</v>
+        <v>5.6996008314341522E-4</v>
       </c>
       <c r="G30">
-        <v>5.4645085655929157E-4</v>
+        <v>5.6951816703823988E-4</v>
       </c>
       <c r="H30">
-        <v>5.4701855850944456E-4</v>
+        <v>5.7010978594149338E-4</v>
       </c>
       <c r="I30">
-        <v>5.5159545353608997E-4</v>
+        <v>5.7487956261865754E-4</v>
       </c>
       <c r="J30">
-        <v>5.5116986450326347E-4</v>
+        <v>5.7443519462267441E-4</v>
       </c>
       <c r="K30">
-        <v>5.5082515994957833E-4</v>
+        <v>5.7407101696939681E-4</v>
       </c>
       <c r="L30">
-        <v>5.5045116908780244E-4</v>
+        <v>5.7368079332420063E-4</v>
       </c>
       <c r="M30">
-        <v>5.5016894781847396E-4</v>
+        <v>5.7338591052819412E-4</v>
       </c>
       <c r="N30">
-        <v>5.5030632856499669E-4</v>
+        <v>5.7352870427450646E-4</v>
       </c>
       <c r="O30">
-        <v>5.5080345075069956E-4</v>
+        <v>5.7404524281558721E-4</v>
       </c>
       <c r="P30">
-        <v>5.5167571643641449E-4</v>
+        <v>5.7495598374617473E-4</v>
       </c>
       <c r="Q30">
-        <v>5.5236107717376317E-4</v>
+        <v>5.7567197447162301E-4</v>
       </c>
       <c r="R30">
-        <v>5.5273978734272802E-4</v>
+        <v>5.7606741774479436E-4</v>
       </c>
       <c r="S30">
-        <v>5.5274410279881891E-4</v>
+        <v>5.7607237499356242E-4</v>
       </c>
       <c r="T30">
-        <v>5.5289670193281145E-4</v>
+        <v>5.762329043721763E-4</v>
       </c>
       <c r="U30">
-        <v>5.5265714178147211E-4</v>
+        <v>5.7598405732017636E-4</v>
       </c>
       <c r="V30">
-        <v>5.5244896195009953E-4</v>
+        <v>5.7576783576552626E-4</v>
       </c>
       <c r="W30">
-        <v>5.5221137170350255E-4</v>
+        <v>5.7552143636232329E-4</v>
       </c>
       <c r="X30">
-        <v>5.5188530920952062E-4</v>
+        <v>5.7518244213933473E-4</v>
       </c>
       <c r="Y30">
-        <v>5.5130828970691593E-4</v>
+        <v>5.7458173195686134E-4</v>
       </c>
       <c r="Z30">
-        <v>5.5089526377585969E-4</v>
+        <v>5.7415134865799545E-4</v>
       </c>
       <c r="AA30">
-        <v>5.5094868459087108E-4</v>
+        <v>5.7420812373722705E-4</v>
       </c>
       <c r="AB30">
-        <v>5.5070873103541993E-4</v>
+        <v>5.7395891913116653E-4</v>
       </c>
       <c r="AC30">
-        <v>5.5038144396247959E-4</v>
+        <v>5.7361920437307709E-4</v>
       </c>
       <c r="AD30">
-        <v>5.5068737415113456E-4</v>
+        <v>5.7393876788858417E-4</v>
       </c>
       <c r="AE30">
-        <v>5.5020714130888889E-4</v>
+        <v>5.7343895733650446E-4</v>
       </c>
     </row>
   </sheetData>
@@ -18519,7 +18519,7 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -18896,9 +18896,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.40625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19005,11 +19005,11 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.40625" customWidth="1"/>
+    <col min="3" max="3" width="42.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -19153,7 +19153,7 @@
       </c>
       <c r="B16">
         <f>TREND(C16:D16,C13:D13,B13)</f>
-        <v>3.1424986163219263E-4</v>
+        <v>3.142498616321935E-4</v>
       </c>
       <c r="C16">
         <f>C15*$B$2/$B$9</f>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19179,7 +19179,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="29.5">
       <c r="A20" s="13" t="s">
         <v>68</v>
       </c>
@@ -19197,7 +19197,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="29.5">
       <c r="A22" s="13" t="s">
         <v>70</v>
       </c>
@@ -19289,11 +19289,11 @@
       <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="40" max="40" width="8.7109375" style="24"/>
+    <col min="15" max="15" width="11.40625" customWidth="1"/>
+    <col min="40" max="40" width="8.7265625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -19539,175 +19539,175 @@
       </c>
       <c r="AB2" s="4">
         <f>($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AA2</f>
-        <v>3.170827862483609E-4</v>
+        <v>3.1934654476143933E-4</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" ref="AC2:AN2" si="0">($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AB2</f>
-        <v>3.199157108645295E-4</v>
+        <v>3.2444322789068635E-4</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>3.227486354806981E-4</v>
+        <v>3.2953991101993338E-4</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>3.255815600968667E-4</v>
+        <v>3.346365941491804E-4</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>3.284144847130353E-4</v>
+        <v>3.3973327727842743E-4</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>3.312474093292039E-4</v>
+        <v>3.4482996040767445E-4</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3408033394537249E-4</v>
+        <v>3.4992664353692148E-4</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3691325856154109E-4</v>
+        <v>3.550233266661685E-4</v>
       </c>
       <c r="AJ2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3974618317770969E-4</v>
+        <v>3.6012000979541552E-4</v>
       </c>
       <c r="AK2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4257910779387829E-4</v>
+        <v>3.6521669292466255E-4</v>
       </c>
       <c r="AL2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4541203241004689E-4</v>
+        <v>3.7031337605390957E-4</v>
       </c>
       <c r="AM2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4824495702621549E-4</v>
+        <v>3.754100591831566E-4</v>
       </c>
       <c r="AN2" s="26">
         <f t="shared" si="0"/>
-        <v>3.5107788164238408E-4</v>
+        <v>3.8050674231240362E-4</v>
       </c>
       <c r="AO2" s="10">
         <f>BNVFE!D8</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="AP2" s="10">
         <f>BNVFE!E8</f>
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="AQ2" s="10">
         <f>BNVFE!F8</f>
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="AR2" s="10">
         <f>BNVFE!G8</f>
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="AS2" s="10">
         <f>BNVFE!H8</f>
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="AT2" s="10">
         <f>BNVFE!I8</f>
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="AU2" s="10">
         <f>BNVFE!J8</f>
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="AV2" s="10">
         <f>BNVFE!K8</f>
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="AW2" s="10">
         <f>BNVFE!L8</f>
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="AX2" s="10">
         <f>BNVFE!M8</f>
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="AY2" s="10">
         <f>BNVFE!N8</f>
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="AZ2" s="10">
         <f>BNVFE!O8</f>
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="BA2" s="10">
         <f>BNVFE!P8</f>
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="BB2" s="10">
         <f>BNVFE!Q8</f>
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="BC2" s="10">
         <f>BNVFE!R8</f>
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="BD2" s="10">
         <f>BNVFE!S8</f>
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="BE2" s="10">
         <f>BNVFE!T8</f>
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="BF2" s="10">
         <f>BNVFE!U8</f>
-        <v>4.1601549646964788E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="BG2" s="10">
         <f>BNVFE!V8</f>
-        <v>4.1779365223495714E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="BH2" s="10">
         <f>BNVFE!W8</f>
-        <v>4.1809544457369974E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="BI2" s="10">
         <f>BNVFE!X8</f>
-        <v>4.1838332983416382E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="BJ2" s="10">
         <f>BNVFE!Y8</f>
-        <v>4.1848122624012197E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="BK2" s="10">
         <f>BNVFE!Z8</f>
-        <v>4.1826563698301188E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="BL2" s="10">
         <f>BNVFE!AA8</f>
-        <v>4.1769414168042572E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="BM2" s="10">
         <f>BNVFE!AB8</f>
-        <v>4.1714393092982577E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="BN2" s="10">
         <f>BNVFE!AC8</f>
-        <v>4.1708664938544884E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="BO2" s="10">
         <f>BNVFE!AD8</f>
-        <v>4.165029094218215E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="BP2" s="10">
         <f>BNVFE!AE8</f>
-        <v>4.1616572999280917E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="BQ2" s="10">
         <f>BNVFE!AF8</f>
-        <v>4.1755377409260071E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="BR2" s="10">
         <f>BNVFE!AG8</f>
-        <v>4.1711981834238049E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
       <c r="BS2" s="10"/>
       <c r="BT2" s="4"/>
@@ -19745,179 +19745,179 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="4" cm="1">
         <f t="array" ref="AA3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AA1)</f>
-        <v>7.5108389563240119E-5</v>
+        <v>5.0412726378568952E-5</v>
       </c>
       <c r="AB3" s="4" cm="1">
         <f t="array" ref="AB3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AB1)</f>
-        <v>7.7552820431472588E-5</v>
+        <v>5.4271492176534604E-5</v>
       </c>
       <c r="AC3" s="4" cm="1">
         <f t="array" ref="AC3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AC1)</f>
-        <v>7.9997251299705058E-5</v>
+        <v>5.8130257974500256E-5</v>
       </c>
       <c r="AD3" s="4" cm="1">
         <f t="array" ref="AD3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AD1)</f>
-        <v>8.2441682167937527E-5</v>
+        <v>6.1989023772465041E-5</v>
       </c>
       <c r="AE3" s="4" cm="1">
         <f t="array" ref="AE3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AE1)</f>
-        <v>8.4886113036169997E-5</v>
+        <v>6.5847789570430693E-5</v>
       </c>
       <c r="AF3" s="4" cm="1">
         <f t="array" ref="AF3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AF1)</f>
-        <v>8.7330543904402466E-5</v>
+        <v>6.9706555368396345E-5</v>
       </c>
       <c r="AG3" s="4" cm="1">
         <f t="array" ref="AG3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AG1)</f>
-        <v>8.9774974772634936E-5</v>
+        <v>7.3565321166361129E-5</v>
       </c>
       <c r="AH3" s="4" cm="1">
         <f t="array" ref="AH3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AH1)</f>
-        <v>9.2219405640867405E-5</v>
+        <v>7.7424086964326781E-5</v>
       </c>
       <c r="AI3" s="4" cm="1">
         <f t="array" ref="AI3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AI1)</f>
-        <v>9.4663836509099875E-5</v>
+        <v>8.1282852762291566E-5</v>
       </c>
       <c r="AJ3" s="4" cm="1">
         <f t="array" ref="AJ3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AJ1)</f>
-        <v>9.7108267377332344E-5</v>
+        <v>8.5141618560257218E-5</v>
       </c>
       <c r="AK3" s="4" cm="1">
         <f t="array" ref="AK3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AK1)</f>
-        <v>9.9552698245564814E-5</v>
+        <v>8.900038435822287E-5</v>
       </c>
       <c r="AL3" s="4" cm="1">
         <f t="array" ref="AL3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AL1)</f>
-        <v>1.0199712911379728E-4</v>
+        <v>9.2859150156187655E-5</v>
       </c>
       <c r="AM3" s="4" cm="1">
         <f t="array" ref="AM3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AM1)</f>
-        <v>1.0444155998202975E-4</v>
+        <v>9.6717915954153307E-5</v>
       </c>
       <c r="AN3" s="26" cm="1">
         <f t="array" ref="AN3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AN1)</f>
-        <v>1.0688599085026222E-4</v>
+        <v>1.0057668175211809E-4</v>
       </c>
       <c r="AO3" s="10">
         <f>BNVFE!D9</f>
-        <v>1.0748894488887501E-4</v>
+        <v>1.0420515928406728E-4</v>
       </c>
       <c r="AP3" s="10">
         <f>BNVFE!E9</f>
-        <v>1.1376628742778099E-4</v>
+        <v>1.0877081887028839E-4</v>
       </c>
       <c r="AQ3" s="10">
         <f>BNVFE!F9</f>
-        <v>1.1487084665170681E-4</v>
+        <v>1.119228749342E-4</v>
       </c>
       <c r="AR3" s="10">
         <f>BNVFE!G9</f>
-        <v>1.1675219072501874E-4</v>
+        <v>1.1596328986495364E-4</v>
       </c>
       <c r="AS3" s="10">
         <f>BNVFE!H9</f>
-        <v>1.1821814758141852E-4</v>
+        <v>1.1990275277656129E-4</v>
       </c>
       <c r="AT3" s="10">
         <f>BNVFE!I9</f>
-        <v>1.1769306557695523E-4</v>
+        <v>1.2199635295884858E-4</v>
       </c>
       <c r="AU3" s="10">
         <f>BNVFE!J9</f>
-        <v>1.1740735707916262E-4</v>
+        <v>1.243467097653028E-4</v>
       </c>
       <c r="AV3" s="10">
         <f>BNVFE!K9</f>
-        <v>1.1551151797500483E-4</v>
+        <v>1.2468075205096364E-4</v>
       </c>
       <c r="AW3" s="10">
         <f>BNVFE!L9</f>
-        <v>1.1449785838376007E-4</v>
+        <v>1.2577381385553893E-4</v>
       </c>
       <c r="AX3" s="10">
         <f>BNVFE!M9</f>
-        <v>1.13287341804607E-4</v>
+        <v>1.2646319222836433E-4</v>
       </c>
       <c r="AY3" s="10">
         <f>BNVFE!N9</f>
-        <v>1.1212406398402511E-4</v>
+        <v>1.2698406877407795E-4</v>
       </c>
       <c r="AZ3" s="10">
         <f>BNVFE!O9</f>
-        <v>1.1076186329973974E-4</v>
+        <v>1.2710494044541212E-4</v>
       </c>
       <c r="BA3" s="10">
         <f>BNVFE!P9</f>
-        <v>1.0947685788155618E-4</v>
+        <v>1.2713124547346271E-4</v>
       </c>
       <c r="BB3" s="10">
         <f>BNVFE!Q9</f>
-        <v>1.0833659526703707E-4</v>
+        <v>1.2714496314152464E-4</v>
       </c>
       <c r="BC3" s="10">
         <f>BNVFE!R9</f>
-        <v>1.0725258337875167E-4</v>
+        <v>1.2712313200368365E-4</v>
       </c>
       <c r="BD3" s="10">
         <f>BNVFE!S9</f>
-        <v>1.0627237374881068E-4</v>
+        <v>1.271005238267318E-4</v>
       </c>
       <c r="BE3" s="10">
         <f>BNVFE!T9</f>
-        <v>1.053872190542009E-4</v>
+        <v>1.2708001023750603E-4</v>
       </c>
       <c r="BF3" s="10">
         <f>BNVFE!U9</f>
-        <v>1.0457070988285631E-4</v>
+        <v>1.2705407014004141E-4</v>
       </c>
       <c r="BG3" s="10">
         <f>BNVFE!V9</f>
-        <v>1.0382785746559407E-4</v>
+        <v>1.2702629811717708E-4</v>
       </c>
       <c r="BH3" s="10">
         <f>BNVFE!W9</f>
-        <v>1.0317553743970813E-4</v>
+        <v>1.2701194080551808E-4</v>
       </c>
       <c r="BI3" s="10">
         <f>BNVFE!X9</f>
-        <v>1.0260660677729319E-4</v>
+        <v>1.2701796387221964E-4</v>
       </c>
       <c r="BJ3" s="10">
         <f>BNVFE!Y9</f>
-        <v>1.0212195692865432E-4</v>
+        <v>1.2701802056749482E-4</v>
       </c>
       <c r="BK3" s="10">
         <f>BNVFE!Z9</f>
-        <v>1.0164270384030296E-4</v>
+        <v>1.270327910946451E-4</v>
       </c>
       <c r="BL3" s="10">
         <f>BNVFE!AA9</f>
-        <v>1.0120623842325044E-4</v>
+        <v>1.2702817221538397E-4</v>
       </c>
       <c r="BM3" s="10">
         <f>BNVFE!AB9</f>
-        <v>1.0086620530512349E-4</v>
+        <v>1.2698131801807758E-4</v>
       </c>
       <c r="BN3" s="10">
         <f>BNVFE!AC9</f>
-        <v>1.0054219744424832E-4</v>
+        <v>1.2695571200958938E-4</v>
       </c>
       <c r="BO3" s="10">
         <f>BNVFE!AD9</f>
-        <v>9.9850684341711718E-5</v>
+        <v>1.2640538596243631E-4</v>
       </c>
       <c r="BP3" s="10">
         <f>BNVFE!AE9</f>
-        <v>9.9621972535475967E-5</v>
+        <v>1.2643551327178303E-4</v>
       </c>
       <c r="BQ3" s="10">
         <f>BNVFE!AF9</f>
-        <v>9.9483752435656976E-5</v>
+        <v>1.2650241733350927E-4</v>
       </c>
       <c r="BR3" s="10">
         <f>BNVFE!AG9</f>
-        <v>9.9383928406132565E-5</v>
+        <v>1.2663654108394285E-4</v>
       </c>
       <c r="BS3" s="10"/>
       <c r="BT3" s="4"/>
@@ -19940,119 +19940,119 @@
       <c r="K4" s="9"/>
       <c r="L4" s="4">
         <f>L5/M5*M4</f>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="1"/>
-        <v>1.177387347221569E-3</v>
+        <v>1.1604234453908705E-3</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1740372877780075E-3</v>
+        <v>1.1579662228857668E-3</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1706872283344459E-3</v>
+        <v>1.1555090003806633E-3</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1673371688908844E-3</v>
+        <v>1.1530517778755595E-3</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="1"/>
-        <v>1.163987109447323E-3</v>
+        <v>1.1505945553704558E-3</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1606370500037615E-3</v>
+        <v>1.1481373328653521E-3</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1572869905602E-3</v>
+        <v>1.1456801103602485E-3</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1539369311166386E-3</v>
+        <v>1.1432228878551448E-3</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1505868716730771E-3</v>
+        <v>1.1407656653500411E-3</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1472368122295155E-3</v>
+        <v>1.1383084428449376E-3</v>
       </c>
       <c r="AG4" s="4">
         <f>AG5/AH5*AH4</f>
-        <v>1.143886752785954E-3</v>
+        <v>1.1358512203398338E-3</v>
       </c>
       <c r="AH4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1405366933423926E-3</v>
+        <v>1.1333939978347303E-3</v>
       </c>
       <c r="AI4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1371866338988309E-3</v>
+        <v>1.1309367753296266E-3</v>
       </c>
       <c r="AJ4" s="4">
         <f>AJ5/AK5*AK4</f>
-        <v>1.1338365744552694E-3</v>
+        <v>1.1284795528245229E-3</v>
       </c>
       <c r="AK4" s="19">
         <f>AK5/AL5*AL4</f>
-        <v>1.130486515011708E-3</v>
+        <v>1.1260223303194191E-3</v>
       </c>
       <c r="AL4" s="19">
         <f>AL5/AM5*AM4</f>
-        <v>1.1271364555681463E-3</v>
+        <v>1.1235651078143154E-3</v>
       </c>
       <c r="AM4" s="19">
         <f>AM5/AN5*AN4</f>
-        <v>1.1237863961245848E-3</v>
+        <v>1.1211078853092119E-3</v>
       </c>
       <c r="AN4" s="27">
         <f>AN5/AO5*AO4</f>
-        <v>1.1204363366810234E-3</v>
+        <v>1.1186506628041082E-3</v>
       </c>
       <c r="AO4" s="10">
         <f>BNVFE!D10</f>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="AT4" s="10">
         <f>BNVFE!I10</f>
-        <v>1.3325458991476347E-3</v>
+        <v>1.3325458991476349E-3</v>
       </c>
       <c r="AU4" s="10">
         <f>BNVFE!J10</f>
@@ -20084,7 +20084,7 @@
       </c>
       <c r="AV4" s="10">
         <f>BNVFE!K10</f>
-        <v>1.3753174198569201E-3</v>
+        <v>1.3753174198569197E-3</v>
       </c>
       <c r="AW4" s="10">
         <f>BNVFE!L10</f>
@@ -20092,11 +20092,11 @@
       </c>
       <c r="AX4" s="10">
         <f>BNVFE!M10</f>
-        <v>1.4146533498165595E-3</v>
+        <v>1.4146533498165597E-3</v>
       </c>
       <c r="AY4" s="10">
         <f>BNVFE!N10</f>
-        <v>1.4334182752321722E-3</v>
+        <v>1.433418275232172E-3</v>
       </c>
       <c r="AZ4" s="10">
         <f>BNVFE!O10</f>
@@ -20104,15 +20104,15 @@
       </c>
       <c r="BA4" s="10">
         <f>BNVFE!P10</f>
-        <v>1.4455847020325701E-3</v>
+        <v>1.4455847020325705E-3</v>
       </c>
       <c r="BB4" s="10">
         <f>BNVFE!Q10</f>
-        <v>1.4457021763821076E-3</v>
+        <v>1.4457021763821074E-3</v>
       </c>
       <c r="BC4" s="10">
         <f>BNVFE!R10</f>
-        <v>1.4456854451868699E-3</v>
+        <v>1.4456854451868704E-3</v>
       </c>
       <c r="BD4" s="10">
         <f>BNVFE!S10</f>
@@ -20128,11 +20128,11 @@
       </c>
       <c r="BG4" s="10">
         <f>BNVFE!V10</f>
-        <v>1.4452171497116701E-3</v>
+        <v>1.4452171497116699E-3</v>
       </c>
       <c r="BH4" s="10">
         <f>BNVFE!W10</f>
-        <v>1.4450916657473916E-3</v>
+        <v>1.4450916657473914E-3</v>
       </c>
       <c r="BI4" s="10">
         <f>BNVFE!X10</f>
@@ -20140,15 +20140,15 @@
       </c>
       <c r="BJ4" s="10">
         <f>BNVFE!Y10</f>
-        <v>1.443856049179987E-3</v>
+        <v>1.4438560491799872E-3</v>
       </c>
       <c r="BK4" s="10">
         <f>BNVFE!Z10</f>
-        <v>1.4432142120520614E-3</v>
+        <v>1.4432142120520612E-3</v>
       </c>
       <c r="BL4" s="10">
         <f>BNVFE!AA10</f>
-        <v>1.443266541535037E-3</v>
+        <v>1.4432665415350372E-3</v>
       </c>
       <c r="BM4" s="10">
         <f>BNVFE!AB10</f>
@@ -20239,195 +20239,195 @@
       </c>
       <c r="W5" s="4">
         <f>($AO$5-$V$5)/COUNT($V$1:$AO$1)+V5</f>
-        <v>7.7819056047563108E-4</v>
+        <v>7.7875573937035282E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" ref="X5:AN5" si="3">($AO$5-$V$5)/COUNT($V$1:$AO$1)+W5</f>
-        <v>7.7597634894858872E-4</v>
+        <v>7.771067067380322E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="3"/>
-        <v>7.7376213742154636E-4</v>
+        <v>7.7545767410571158E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="3"/>
-        <v>7.71547925894504E-4</v>
+        <v>7.7380864147339097E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6933371436746164E-4</v>
+        <v>7.7215960884107035E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6711950284041929E-4</v>
+        <v>7.7051057620874973E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6490529131337693E-4</v>
+        <v>7.6886154357642912E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6269107978633457E-4</v>
+        <v>7.672125109441085E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6047686825929221E-4</v>
+        <v>7.6556347831178788E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5826265673224985E-4</v>
+        <v>7.6391444567946727E-4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5604844520520749E-4</v>
+        <v>7.6226541304714665E-4</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5383423367816514E-4</v>
+        <v>7.6061638041482603E-4</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5162002215112278E-4</v>
+        <v>7.5896734778250542E-4</v>
       </c>
       <c r="AJ5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4940581062408042E-4</v>
+        <v>7.573183151501848E-4</v>
       </c>
       <c r="AK5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4719159909703806E-4</v>
+        <v>7.5566928251786418E-4</v>
       </c>
       <c r="AL5" s="4">
         <f t="shared" si="3"/>
-        <v>7.449773875699957E-4</v>
+        <v>7.5402024988554357E-4</v>
       </c>
       <c r="AM5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4276317604295334E-4</v>
+        <v>7.5237121725322295E-4</v>
       </c>
       <c r="AN5" s="26">
         <f t="shared" si="3"/>
-        <v>7.4054896451591099E-4</v>
+        <v>7.5072218462090233E-4</v>
       </c>
       <c r="AO5" s="10">
         <f>BNVFE!D11</f>
-        <v>7.3612054146182692E-4</v>
+        <v>7.4742411935626142E-4</v>
       </c>
       <c r="AP5" s="10">
         <f>BNVFE!E11</f>
-        <v>7.8447318350072194E-4</v>
+        <v>7.9651924557390657E-4</v>
       </c>
       <c r="AQ5" s="10">
         <f>BNVFE!F11</f>
-        <v>8.0913266389472246E-4</v>
+        <v>8.2155738726285784E-4</v>
       </c>
       <c r="AR5" s="10">
         <f>BNVFE!G11</f>
-        <v>8.3445529729440947E-4</v>
+        <v>8.4726886507457174E-4</v>
       </c>
       <c r="AS5" s="10">
         <f>BNVFE!H11</f>
-        <v>8.582213975349269E-4</v>
+        <v>8.7139990821531331E-4</v>
       </c>
       <c r="AT5" s="10">
         <f>BNVFE!I11</f>
-        <v>8.8074213007663328E-4</v>
+        <v>8.9426646028002797E-4</v>
       </c>
       <c r="AU5" s="10">
         <f>BNVFE!J11</f>
-        <v>9.0057319308330108E-4</v>
+        <v>9.1440204130079723E-4</v>
       </c>
       <c r="AV5" s="10">
         <f>BNVFE!K11</f>
-        <v>9.0901183566816969E-4</v>
+        <v>9.2297026436659075E-4</v>
       </c>
       <c r="AW5" s="10">
         <f>BNVFE!L11</f>
-        <v>9.2181220627128113E-4</v>
+        <v>9.3596719243283541E-4</v>
       </c>
       <c r="AX5" s="10">
         <f>BNVFE!M11</f>
-        <v>9.3501079807791388E-4</v>
+        <v>9.4936845663098554E-4</v>
       </c>
       <c r="AY5" s="10">
         <f>BNVFE!N11</f>
-        <v>9.4741341804908898E-4</v>
+        <v>9.6196152636282171E-4</v>
       </c>
       <c r="AZ5" s="10">
         <f>BNVFE!O11</f>
-        <v>9.5479798028431191E-4</v>
+        <v>9.6945948303515201E-4</v>
       </c>
       <c r="BA5" s="10">
         <f>BNVFE!P11</f>
-        <v>9.5545478057360543E-4</v>
+        <v>9.7012636889170394E-4</v>
       </c>
       <c r="BB5" s="10">
         <f>BNVFE!Q11</f>
-        <v>9.5553242488507497E-4</v>
+        <v>9.7020520547872228E-4</v>
       </c>
       <c r="BC5" s="10">
         <f>BNVFE!R11</f>
-        <v>9.5552136645283517E-4</v>
+        <v>9.7019397723754094E-4</v>
       </c>
       <c r="BD5" s="10">
         <f>BNVFE!S11</f>
-        <v>9.5553324838534815E-4</v>
+        <v>9.7020604162434225E-4</v>
       </c>
       <c r="BE5" s="10">
         <f>BNVFE!T11</f>
-        <v>9.5550160244627959E-4</v>
+        <v>9.7017390974266364E-4</v>
       </c>
       <c r="BF5" s="10">
         <f>BNVFE!U11</f>
-        <v>9.5544042814027313E-4</v>
+        <v>9.7011179606804271E-4</v>
       </c>
       <c r="BG5" s="10">
         <f>BNVFE!V11</f>
-        <v>9.5521184799302321E-4</v>
+        <v>9.6987970593383536E-4</v>
       </c>
       <c r="BH5" s="10">
         <f>BNVFE!W11</f>
-        <v>9.5512890975122625E-4</v>
+        <v>9.6979549412497463E-4</v>
       </c>
       <c r="BI5" s="10">
         <f>BNVFE!X11</f>
-        <v>9.5497115062746795E-4</v>
+        <v>9.6963531251407814E-4</v>
       </c>
       <c r="BJ5" s="10">
         <f>BNVFE!Y11</f>
-        <v>9.5431223276604333E-4</v>
+        <v>9.6896627656878928E-4</v>
       </c>
       <c r="BK5" s="10">
         <f>BNVFE!Z11</f>
-        <v>9.5388801248246955E-4</v>
+        <v>9.6853554212517003E-4</v>
       </c>
       <c r="BL5" s="10">
         <f>BNVFE!AA11</f>
-        <v>9.5392259949394229E-4</v>
+        <v>9.6857066024120565E-4</v>
       </c>
       <c r="BM5" s="10">
         <f>BNVFE!AB11</f>
-        <v>9.5402741931442593E-4</v>
+        <v>9.6867708963368051E-4</v>
       </c>
       <c r="BN5" s="10">
         <f>BNVFE!AC11</f>
-        <v>9.5426270510675759E-4</v>
+        <v>9.6891598838222154E-4</v>
       </c>
       <c r="BO5" s="10">
         <f>BNVFE!AD11</f>
-        <v>9.5454316577121671E-4</v>
+        <v>9.6920075569048212E-4</v>
       </c>
       <c r="BP5" s="10">
         <f>BNVFE!AE11</f>
-        <v>9.5490315303348411E-4</v>
+        <v>9.6956627077574963E-4</v>
       </c>
       <c r="BQ5" s="10">
         <f>BNVFE!AF11</f>
-        <v>9.5518761355641295E-4</v>
+        <v>9.6985509936273564E-4</v>
       </c>
       <c r="BR5" s="10">
         <f>BNVFE!AG11</f>
-        <v>9.555246604539279E-4</v>
+        <v>9.701973218200204E-4</v>
       </c>
       <c r="BS5" s="10"/>
       <c r="BT5" s="4"/>
@@ -22743,12 +22743,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -22976,123 +22976,123 @@
       </c>
       <c r="B3" s="4">
         <f>BNVFE!B25*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.6512977295439592E-4</v>
+        <v>3.4315885705159878E-4</v>
       </c>
       <c r="C3" s="4">
         <f>BNVFE!C25*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.5474795033263841E-4</v>
+        <v>3.4251537077170018E-4</v>
       </c>
       <c r="D3" s="4">
         <f>BNVFE!D25*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5999582362156076E-4</v>
+        <v>3.5067496258556929E-4</v>
       </c>
       <c r="E3" s="4">
         <f>BNVFE!E25*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.575411527957111E-4</v>
+        <v>3.5195903261955489E-4</v>
       </c>
       <c r="F3" s="4">
         <f>BNVFE!F25*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.5098955393113139E-4</v>
+        <v>3.5537454196456301E-4</v>
       </c>
       <c r="G3" s="4">
         <f>BNVFE!G25*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.2529070551256162E-4</v>
+        <v>3.6001444402488291E-4</v>
       </c>
       <c r="H3" s="4">
         <f>BNVFE!H25*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.2405957424546739E-4</v>
+        <v>3.639117399264578E-4</v>
       </c>
       <c r="I3" s="4">
         <f>BNVFE!I25*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.2305318872919765E-4</v>
+        <v>3.6765602654358315E-4</v>
       </c>
       <c r="J3" s="4">
         <f>BNVFE!J25*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.2314699001954232E-4</v>
+        <v>3.7314346130715945E-4</v>
       </c>
       <c r="K3" s="4">
         <f>BNVFE!K25*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.2324770853401079E-4</v>
+        <v>3.7816127565462235E-4</v>
       </c>
       <c r="L3" s="4">
         <f>BNVFE!L25*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.2427274517001246E-4</v>
+        <v>3.8287720134892478E-4</v>
       </c>
       <c r="M3" s="4">
         <f>BNVFE!M25*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.2437797979064292E-4</v>
+        <v>3.8695589546632644E-4</v>
       </c>
       <c r="N3" s="4">
         <f>BNVFE!N25*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.2523361399085606E-4</v>
+        <v>3.9124659466938441E-4</v>
       </c>
       <c r="O3" s="4">
         <f>BNVFE!O25*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.2615971146515569E-4</v>
+        <v>3.9544274917153121E-4</v>
       </c>
       <c r="P3" s="4">
         <f>BNVFE!P25*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.3177243986842866E-4</v>
+        <v>4.0318106889032553E-4</v>
       </c>
       <c r="Q3" s="4">
         <f>BNVFE!Q25*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3631690935380739E-4</v>
+        <v>4.0934602784305208E-4</v>
       </c>
       <c r="R3" s="4">
         <f>BNVFE!R25*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.4057057772530629E-4</v>
+        <v>4.1460859761082873E-4</v>
       </c>
       <c r="S3" s="4">
         <f>BNVFE!S25*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.5254040910253097E-4</v>
+        <v>4.2918095492519738E-4</v>
       </c>
       <c r="T3" s="4">
         <f>BNVFE!T25*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.5622167214823523E-4</v>
+        <v>4.335787303895307E-4</v>
       </c>
       <c r="U3" s="4">
         <f>BNVFE!U25*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.5932586621187509E-4</v>
+        <v>4.3685345470599412E-4</v>
       </c>
       <c r="V3" s="4">
         <f>BNVFE!V25*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.6998069835868409E-4</v>
+        <v>4.4986152668336464E-4</v>
       </c>
       <c r="W3" s="4">
         <f>BNVFE!W25*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.7043547142435307E-4</v>
+        <v>4.506125079279828E-4</v>
       </c>
       <c r="X3" s="4">
         <f>BNVFE!X25*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.7063277045978053E-4</v>
+        <v>4.5077860462753374E-4</v>
       </c>
       <c r="Y3" s="4">
         <f>BNVFE!Y25*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.7027223527136152E-4</v>
+        <v>4.5037480829452432E-4</v>
       </c>
       <c r="Z3" s="4">
         <f>BNVFE!Z25*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.707899458345789E-4</v>
+        <v>4.5090752346333351E-4</v>
       </c>
       <c r="AA3" s="4">
         <f>BNVFE!AA25*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.6942231456915355E-4</v>
+        <v>4.5088043127990992E-4</v>
       </c>
       <c r="AB3" s="4">
         <f>BNVFE!AB25*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.7062339495815715E-4</v>
+        <v>4.5210293408135845E-4</v>
       </c>
       <c r="AC3" s="4">
         <f>BNVFE!AC25*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.7138471662628673E-4</v>
+        <v>4.5305688916845286E-4</v>
       </c>
       <c r="AD3" s="4">
         <f>BNVFE!AD25*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.7275932113182964E-4</v>
+        <v>4.5475075705116326E-4</v>
       </c>
       <c r="AE3" s="4">
         <f>BNVFE!AE25*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.7333739446942469E-4</v>
+        <v>4.5558862387767087E-4</v>
       </c>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
@@ -23103,123 +23103,123 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!AB2</f>
-        <v>3.170827862483609E-4</v>
+        <v>3.1934654476143933E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AC2</f>
-        <v>3.199157108645295E-4</v>
+        <v>3.2444322789068635E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AD2</f>
-        <v>3.227486354806981E-4</v>
+        <v>3.2953991101993338E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AE2</f>
-        <v>3.255815600968667E-4</v>
+        <v>3.346365941491804E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AF2</f>
-        <v>3.284144847130353E-4</v>
+        <v>3.3973327727842743E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AG2</f>
-        <v>3.312474093292039E-4</v>
+        <v>3.4482996040767445E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AH2</f>
-        <v>3.3408033394537249E-4</v>
+        <v>3.4992664353692148E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AI2</f>
-        <v>3.3691325856154109E-4</v>
+        <v>3.550233266661685E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AJ2</f>
-        <v>3.3974618317770969E-4</v>
+        <v>3.6012000979541552E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AK2</f>
-        <v>3.4257910779387829E-4</v>
+        <v>3.6521669292466255E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AL2</f>
-        <v>3.4541203241004689E-4</v>
+        <v>3.7031337605390957E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AM2</f>
-        <v>3.4824495702621549E-4</v>
+        <v>3.754100591831566E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AN2</f>
-        <v>3.5107788164238408E-4</v>
+        <v>3.8050674231240362E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AO2</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AP2</f>
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AQ2</f>
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AR2</f>
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AS2</f>
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AT2</f>
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AU2</f>
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AV2</f>
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AW2</f>
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AX2</f>
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AY2</f>
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AZ2</f>
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!BA2</f>
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!BB2</f>
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BC2</f>
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BD2</f>
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BE2</f>
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
@@ -23230,123 +23230,123 @@
       </c>
       <c r="B5" s="4">
         <f>BNVFE!B27*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.5658241110255779E-4</v>
+        <v>3.3512581471667653E-4</v>
       </c>
       <c r="C5" s="4">
         <f>BNVFE!C27*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.546826203139623E-4</v>
+        <v>3.4245229349232932E-4</v>
       </c>
       <c r="D5" s="4">
         <f>BNVFE!D27*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5321445226457391E-4</v>
+        <v>3.4406917165453311E-4</v>
       </c>
       <c r="E5" s="4">
         <f>BNVFE!E27*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.524765095404888E-4</v>
+        <v>3.4697346123362365E-4</v>
       </c>
       <c r="F5" s="4">
         <f>BNVFE!F27*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.4444165282567749E-4</v>
+        <v>3.4874483652143026E-4</v>
       </c>
       <c r="G5" s="4">
         <f>BNVFE!G27*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.1958904086234162E-4</v>
+        <v>3.5370414497766343E-4</v>
       </c>
       <c r="H5" s="4">
         <f>BNVFE!H27*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.1833343353394986E-4</v>
+        <v>3.5748141045927891E-4</v>
       </c>
       <c r="I5" s="4">
         <f>BNVFE!I27*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.1412412398046098E-4</v>
+        <v>3.5749415666950872E-4</v>
       </c>
       <c r="J5" s="4">
         <f>BNVFE!J27*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.1380528787726191E-4</v>
+        <v>3.6235643503264504E-4</v>
       </c>
       <c r="K5" s="4">
         <f>BNVFE!K27*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.1412454613579944E-4</v>
+        <v>3.6748826347409249E-4</v>
       </c>
       <c r="L5" s="4">
         <f>BNVFE!L27*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.1593684912226372E-4</v>
+        <v>3.7303479369352893E-4</v>
       </c>
       <c r="M5" s="4">
         <f>BNVFE!M27*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.1696816235110396E-4</v>
+        <v>3.7811660081257293E-4</v>
       </c>
       <c r="N5" s="4">
         <f>BNVFE!N27*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.1872195023581305E-4</v>
+        <v>3.8341325223429322E-4</v>
       </c>
       <c r="O5" s="4">
         <f>BNVFE!O27*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.204519818383183E-4</v>
+        <v>3.8852258026095287E-4</v>
       </c>
       <c r="P5" s="4">
         <f>BNVFE!P27*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.2661274550379422E-4</v>
+        <v>3.9691083411764322E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>BNVFE!Q27*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3159751139569607E-4</v>
+        <v>4.0360184206400415E-4</v>
       </c>
       <c r="R5" s="4">
         <f>BNVFE!R27*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.3626742360268452E-4</v>
+        <v>4.0936996335181616E-4</v>
       </c>
       <c r="S5" s="4">
         <f>BNVFE!S27*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.4855286672866461E-4</v>
+        <v>4.2432654051018792E-4</v>
       </c>
       <c r="T5" s="4">
         <f>BNVFE!T27*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.5224997356011041E-4</v>
+        <v>4.2874453818290829E-4</v>
       </c>
       <c r="U5" s="4">
         <f>BNVFE!U27*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.5572055564458207E-4</v>
+        <v>4.3247026795349556E-4</v>
       </c>
       <c r="V5" s="4">
         <f>BNVFE!V27*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.6666645963201293E-4</v>
+        <v>4.4583172593973757E-4</v>
       </c>
       <c r="W5" s="4">
         <f>BNVFE!W27*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.6745317163350868E-4</v>
+        <v>4.4698471930671959E-4</v>
       </c>
       <c r="X5" s="4">
         <f>BNVFE!X27*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.6812816732604984E-4</v>
+        <v>4.4773240473439335E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>BNVFE!Y27*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.6829543482855682E-4</v>
+        <v>4.4797035817470312E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>BNVFE!Z27*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.6916794586512564E-4</v>
+        <v>4.4893505361214171E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>BNVFE!AA27*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.6836027015493497E-4</v>
+        <v>4.4958420464541509E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>BNVFE!AB27*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.6989680254038607E-4</v>
+        <v>4.5121660426941369E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>BNVFE!AC27*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.7101492304657024E-4</v>
+        <v>4.5260577332722303E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>BNVFE!AD27*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.7218016517873024E-4</v>
+        <v>4.5404421104897877E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>BNVFE!AE27*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.7301391239035468E-4</v>
+        <v>4.5519387436306075E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -23357,123 +23357,123 @@
       </c>
       <c r="B6" s="4">
         <f>BNVFE!B28*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>5.7733679111085859E-4</v>
+        <v>5.4259676434598647E-4</v>
       </c>
       <c r="C6" s="4">
         <f>BNVFE!C28*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>5.1624349374592988E-4</v>
+        <v>4.9844215168280475E-4</v>
       </c>
       <c r="D6" s="4">
         <f>BNVFE!D28*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>5.0741882465691354E-4</v>
+        <v>4.9428094904465346E-4</v>
       </c>
       <c r="E6" s="4">
         <f>BNVFE!E28*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>5.1345781970387209E-4</v>
+        <v>5.0544144667222896E-4</v>
       </c>
       <c r="F6" s="4">
         <f>BNVFE!F28*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>5.0721121114026969E-4</v>
+        <v>5.1354790995754805E-4</v>
       </c>
       <c r="G6" s="4">
         <f>BNVFE!G28*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>4.7306733810797443E-4</v>
+        <v>5.235657577332682E-4</v>
       </c>
       <c r="H6" s="4">
         <f>BNVFE!H28*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>4.7481949081841583E-4</v>
+        <v>5.332117943345761E-4</v>
       </c>
       <c r="I6" s="4">
         <f>BNVFE!I28*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>4.7320913259414843E-4</v>
+        <v>5.3854348287996328E-4</v>
       </c>
       <c r="J6" s="4">
         <f>BNVFE!J28*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>4.7463592657213656E-4</v>
+        <v>5.480703765526247E-4</v>
       </c>
       <c r="K6" s="4">
         <f>BNVFE!K28*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>4.7740258867597427E-4</v>
+        <v>5.5850410433932053E-4</v>
       </c>
       <c r="L6" s="4">
         <f>BNVFE!L28*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>4.8006153857130626E-4</v>
+        <v>5.6682105141791681E-4</v>
       </c>
       <c r="M6" s="4">
         <f>BNVFE!M28*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>4.8249268977570829E-4</v>
+        <v>5.7557356682662623E-4</v>
       </c>
       <c r="N6" s="4">
         <f>BNVFE!N28*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>4.8553787759081645E-4</v>
+        <v>5.8408796944263018E-4</v>
       </c>
       <c r="O6" s="4">
         <f>BNVFE!O28*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>4.8878116836815273E-4</v>
+        <v>5.9260835157877673E-4</v>
       </c>
       <c r="P6" s="4">
         <f>BNVFE!P28*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>4.9839012649989111E-4</v>
+        <v>6.0566050635881105E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>BNVFE!Q28*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>5.0688524375738135E-4</v>
+        <v>6.1695221183796919E-4</v>
       </c>
       <c r="R6" s="4">
         <f>BNVFE!R28*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>5.1408893015787694E-4</v>
+        <v>6.2584880879500203E-4</v>
       </c>
       <c r="S6" s="4">
         <f>BNVFE!S28*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>5.3298064486994104E-4</v>
+        <v>6.4884800781915975E-4</v>
       </c>
       <c r="T6" s="4">
         <f>BNVFE!T28*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>5.3904493880410056E-4</v>
+        <v>6.5610387706092899E-4</v>
       </c>
       <c r="U6" s="4">
         <f>BNVFE!U28*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>5.4440423055981968E-4</v>
+        <v>6.6186403829994044E-4</v>
       </c>
       <c r="V6" s="4">
         <f>BNVFE!V28*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>5.6091264450523141E-4</v>
+        <v>6.8201670982440869E-4</v>
       </c>
       <c r="W6" s="4">
         <f>BNVFE!W28*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>5.6228352121743142E-4</v>
+        <v>6.8398414084949516E-4</v>
       </c>
       <c r="X6" s="4">
         <f>BNVFE!X28*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>5.6300211186441568E-4</v>
+        <v>6.847459982390736E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>BNVFE!Y28*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>5.6370242333199415E-4</v>
+        <v>6.8565057452186899E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>BNVFE!Z28*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>5.6505007903216167E-4</v>
+        <v>6.8714196442322276E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>BNVFE!AA28*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>5.6472680383080583E-4</v>
+        <v>6.892498228308697E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>BNVFE!AB28*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>5.6695236229259763E-4</v>
+        <v>6.9159375787861133E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>BNVFE!AC28*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>5.6913462321645978E-4</v>
+        <v>6.942944886231706E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>BNVFE!AD28*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>5.7051355681803149E-4</v>
+        <v>6.9600264074737327E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>BNVFE!AE28*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>5.7222367877689934E-4</v>
+        <v>6.98292220994049E-4</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
@@ -23484,123 +23484,123 @@
       </c>
       <c r="B7" s="4">
         <f>BNVFE!B29*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.1763216261773128E-4</v>
+        <v>2.9851931548825495E-4</v>
       </c>
       <c r="C7" s="4">
         <f>BNVFE!C29*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.0669186158966625E-4</v>
+        <v>2.9611637385514933E-4</v>
       </c>
       <c r="D7" s="4">
         <f>BNVFE!D29*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.1685245989931227E-4</v>
+        <v>3.0864864876083039E-4</v>
       </c>
       <c r="E7" s="4">
         <f>BNVFE!E29*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.1739782303062078E-4</v>
+        <v>3.1244244159283816E-4</v>
       </c>
       <c r="F7" s="4">
         <f>BNVFE!F29*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.1192088323962313E-4</v>
+        <v>3.1581777796216959E-4</v>
       </c>
       <c r="G7" s="4">
         <f>BNVFE!G29*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>2.9142107044187574E-4</v>
+        <v>3.2252933414421414E-4</v>
       </c>
       <c r="H7" s="4">
         <f>BNVFE!H29*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>2.9074753100539563E-4</v>
+        <v>3.2650305158812983E-4</v>
       </c>
       <c r="I7" s="4">
         <f>BNVFE!I29*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>2.8982606084405671E-4</v>
+        <v>3.298413438909791E-4</v>
       </c>
       <c r="J7" s="4">
         <f>BNVFE!J29*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>2.8983551626977824E-4</v>
+        <v>3.3467812200296891E-4</v>
       </c>
       <c r="K7" s="4">
         <f>BNVFE!K29*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>2.9017394439876564E-4</v>
+        <v>3.3946891525767797E-4</v>
       </c>
       <c r="L7" s="4">
         <f>BNVFE!L29*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>2.9163668386046073E-4</v>
+        <v>3.443429612582203E-4</v>
       </c>
       <c r="M7" s="4">
         <f>BNVFE!M29*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>2.925881148990673E-4</v>
+        <v>3.4903323609280015E-4</v>
       </c>
       <c r="N7" s="4">
         <f>BNVFE!N29*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>2.9426018427939119E-4</v>
+        <v>3.5398645802132289E-4</v>
       </c>
       <c r="O7" s="4">
         <f>BNVFE!O29*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>2.9593459855706646E-4</v>
+        <v>3.5879720000574574E-4</v>
       </c>
       <c r="P7" s="4">
         <f>BNVFE!P29*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.0150773383604229E-4</v>
+        <v>3.6640237644490118E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>BNVFE!Q29*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.0595864748126056E-4</v>
+        <v>3.7239565881871939E-4</v>
       </c>
       <c r="R7" s="4">
         <f>BNVFE!R29*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.1002205402131999E-4</v>
+        <v>3.774190063766538E-4</v>
       </c>
       <c r="S7" s="4">
         <f>BNVFE!S29*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.2110959644743808E-4</v>
+        <v>3.9091723865015179E-4</v>
       </c>
       <c r="T7" s="4">
         <f>BNVFE!T29*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.2436399554231139E-4</v>
+        <v>3.9480284431652184E-4</v>
       </c>
       <c r="U7" s="4">
         <f>BNVFE!U29*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.2731318390816493E-4</v>
+        <v>3.9793376599498131E-4</v>
       </c>
       <c r="V7" s="4">
         <f>BNVFE!V29*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.3702991066531066E-4</v>
+        <v>4.0979648620174003E-4</v>
       </c>
       <c r="W7" s="4">
         <f>BNVFE!W29*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.3741002097795717E-4</v>
+        <v>4.1043903049645998E-4</v>
       </c>
       <c r="X7" s="4">
         <f>BNVFE!X29*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.3750948921623593E-4</v>
+        <v>4.1049272682690713E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>BNVFE!Y29*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.3717526117842833E-4</v>
+        <v>4.1011782453415828E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>BNVFE!Z29*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.375039228412405E-4</v>
+        <v>4.1042930024698523E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>BNVFE!AA29*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.3608556774951192E-4</v>
+        <v>4.1019288699596694E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>BNVFE!AB29*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.3718406040280117E-4</v>
+        <v>4.1131214355959064E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>BNVFE!AC29*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.378358588691025E-4</v>
+        <v>4.1213021542511836E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>BNVFE!AD29*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.3847440572982264E-4</v>
+        <v>4.1292459644126167E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>BNVFE!AE29*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.3885840983958386E-4</v>
+        <v>4.135134570368764E-4</v>
       </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
@@ -23782,12 +23782,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -24781,12 +24781,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACD76B7B-1DA4-4905-891B-37301943514E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F0C145-5EB0-4280-9DA6-AA87E9CED957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="9800" windowHeight="10070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="99">
   <si>
     <t>Sources:</t>
   </si>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t>energy consumption that more closely matches EIA's AEO trajectory: freight LDVs, passenger HDVs, freight HDVs, passenger ships, passenger motorbikes.</t>
-  </si>
-  <si>
-    <t>California</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1293,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1338,7 +1335,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7789,30 +7785,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.40625" customWidth="1"/>
-    <col min="2" max="2" width="107.40625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="31">
-        <v>45467</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7820,58 +7810,58 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="B7" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="B8" s="5">
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="B14" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -8032,12 +8022,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9031,12 +9021,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9908,12 +9898,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -10785,14 +10775,14 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
-    <col min="2" max="2" width="10.40625" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -11691,12 +11681,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -12568,12 +12558,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -13559,12 +13549,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -14436,12 +14426,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -15435,12 +15425,12 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -16213,11 +16203,11 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.40625" customWidth="1"/>
-    <col min="2" max="2" width="16.40625" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -18519,7 +18509,7 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -18896,9 +18886,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.40625" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19005,11 +18995,11 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.1328125" customWidth="1"/>
-    <col min="2" max="2" width="26.40625" customWidth="1"/>
-    <col min="3" max="3" width="42.86328125" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -19179,7 +19169,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29.5">
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="13" t="s">
         <v>68</v>
       </c>
@@ -19197,7 +19187,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29.5">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="13" t="s">
         <v>70</v>
       </c>
@@ -19289,11 +19279,11 @@
       <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.40625" customWidth="1"/>
-    <col min="40" max="40" width="8.7265625" style="24"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="40" max="40" width="8.7109375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -22743,12 +22733,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -23782,12 +23772,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -24781,12 +24771,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
